--- a/analysis/Results_model/DOLORES_max_cap_6regions/Figure11_compare.xlsx
+++ b/analysis/Results_model/DOLORES_max_cap_6regions/Figure11_compare.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dolores\analysis\Results_model\DOLORES_max_cap_6regions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035" activeTab="4"/>
   </bookViews>
@@ -23,8 +18,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">report_tech_M!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -234,8 +229,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,17 +281,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -315,15 +300,12 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -338,7 +320,6 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -364,16 +345,10 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -495,7 +470,6 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -505,13 +479,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -622,21 +590,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="205880176"/>
-        <c:axId val="205881352"/>
+        <c:axId val="101758080"/>
+        <c:axId val="101760000"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -714,81 +672,60 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="501316896"/>
-        <c:axId val="205881744"/>
+        <c:axId val="101771520"/>
+        <c:axId val="101769984"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="205880176"/>
+        <c:axId val="101758080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205881352"/>
+        <c:crossAx val="101760000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205881352"/>
+        <c:axId val="101760000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205880176"/>
+        <c:crossAx val="101758080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205881744"/>
+        <c:axId val="101769984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.34"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501316896"/>
+        <c:crossAx val="101771520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501316896"/>
+        <c:axId val="101771520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="205881744"/>
+        <c:crossAx val="101769984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -796,15 +733,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -812,17 +747,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -841,22 +766,18 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>storage_E</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -866,13 +787,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -989,7 +904,6 @@
           <c:tx>
             <c:v>storage_P</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -999,13 +913,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1116,21 +1024,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="725754736"/>
-        <c:axId val="702633680"/>
+        <c:axId val="69554944"/>
+        <c:axId val="69556864"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -1208,81 +1106,60 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="702634464"/>
-        <c:axId val="702634072"/>
+        <c:axId val="69572480"/>
+        <c:axId val="69570944"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="725754736"/>
+        <c:axId val="69554944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="702633680"/>
+        <c:crossAx val="69556864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="702633680"/>
+        <c:axId val="69556864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="725754736"/>
+        <c:crossAx val="69554944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="702634072"/>
+        <c:axId val="69570944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.34"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="702634464"/>
+        <c:crossAx val="69572480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="702634464"/>
+        <c:axId val="69572480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="702634072"/>
+        <c:crossAx val="69570944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1290,15 +1167,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1306,51 +1181,191 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>COMPARISON</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2319417731701089E-2"/>
+          <c:y val="8.2130188841958218E-2"/>
+          <c:w val="0.79403326257843299"/>
+          <c:h val="0.65644226817573448"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>storage_E_MORITS</c:v>
+            <c:v>Storage energy capacity DOLORES</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3904077058212598E-3"/>
+                  <c:y val="8.6021476243678466E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2532362161705212E-3"/>
+                  <c:y val="8.6022221463766292E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:dLblPos val="outEnd"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>report_tech!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>report_tech!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8565067209099464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.760361198082308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.312416088570785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.002626201096831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.152168167381774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.57545601288638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209.65203207720731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>391.5156933635709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>561.06890660792089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Storage Power capacity DOLORES</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -1360,13 +1375,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1376,50 +1395,41 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>report_tech!$G$4:$G$17</c:f>
+              <c:f>report_tech!$G$7:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1427,10 +1437,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report_tech_M!$C$86:$C$99</c:f>
+              <c:f>report_tech!$F$24:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1438,39 +1448,202 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2.7008125327961325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4196097352863086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1074343678988559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.199577289157723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.256004779575044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.890981014137127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.939120142863072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.387947114694033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.865100841662965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Storage Energy capacity MORITS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.6021476243679264E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.6021476243679264E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0928099319633523E-3"/>
+                  <c:y val="-2.5149710209072005E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>report_tech!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>report_tech_M!$C$89:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9363137556448602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.6400463051956</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>27.911328960919899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9363137556448602</c:v>
+                  <c:v>45.173932317215403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.6400463051956</c:v>
+                  <c:v>66.429751223778197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.911328960919899</c:v>
+                  <c:v>108.444980417151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.173932317215403</c:v>
+                  <c:v>168.11415311365599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.429751223778197</c:v>
+                  <c:v>271.42902117712401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.444980417151</c:v>
+                  <c:v>434.84833573334402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168.11415311365599</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>271.42902117712401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>434.84833573334402</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>777.42146498196905</c:v>
                 </c:pt>
               </c:numCache>
@@ -1479,16 +1652,17 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>storage_P_MORITS</c:v>
+            <c:v>Storage Power capacity MORITS</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="002060"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -1498,13 +1672,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1514,50 +1692,41 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>report_tech!$G$4:$G$17</c:f>
+              <c:f>report_tech!$G$7:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1565,258 +1734,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report_tech_M!$C$103:$C$116</c:f>
+              <c:f>report_tech_M!$C$106:$C$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.21491165297681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.5403327857140101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.9226329737072101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.21491165297681</c:v>
+                  <c:v>6.3377290671086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5403327857140101</c:v>
+                  <c:v>7.9134167885290099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9226329737072101</c:v>
+                  <c:v>10.9958469451784</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3377290671086</c:v>
+                  <c:v>14.6754604687768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9134167885290099</c:v>
+                  <c:v>19.593967915324299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.9958469451784</c:v>
+                  <c:v>26.407884257261699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.6754604687768</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.593967915324299</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.407884257261699</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>35.491496655314499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>storage_E_DOLORES</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>report_tech!$F$4:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.8565067209099464</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.760361198082308</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45.312416088570785</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63.002626201096831</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>94.152168167381774</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>136.57545601288638</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>209.65203207720731</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>391.5156933635709</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>561.06890660792089</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>storage_P_DOLORES</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>report_tech!$F$21:$F$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7008125327961325</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.4196097352863086</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1074343678988559</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.199577289157723</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.256004779575044</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.890981014137127</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.939120142863072</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27.387947114694033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.865100841662965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="491996928"/>
-        <c:axId val="491996536"/>
+        <c:axId val="98832384"/>
+        <c:axId val="98833920"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="5"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>curtailment_MORITS</c:v>
+            <c:v>Curtailment DOLORES</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050">
@@ -1825,85 +1793,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>report_tech_M!$E$210:$E$223</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.0380022768854708E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1051963226415344E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.155387628290941E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7828700028575686E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0156500471035321E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1526287411273281E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9948742785453479E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.448360804496638E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1155668071474662</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1446161996862512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1772773432647067</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.21254517794948066</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.25355973061100029</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.29164520219413675</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>curtailment_DOLORES</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
@@ -1959,95 +1854,449 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="516150360"/>
-        <c:axId val="590413944"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Curtailment MORITS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>report_tech_M!$E$213:$E$223</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.7828700028575686E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0156500471035321E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1526287411273281E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9948742785453479E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.448360804496638E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1155668071474662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1446161996862512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1772773432647067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21254517794948066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25355973061100029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29164520219413675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="98836864"/>
+        <c:axId val="98835072"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="491996928"/>
+        <c:axId val="98832384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="de-DE" sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Caladea" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Caladea" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Share of variable renewables in final consumer demand in percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491996536"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98833920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="491996536"/>
+        <c:axId val="98833920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Storage Energy capacity in GWh</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Storage Power capacity in GW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.3482176641870211E-3"/>
+              <c:y val="8.0685850682521681E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491996928"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98832384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="590413944"/>
+        <c:axId val="98835072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000016"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:schemeClr val="bg1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Renewable curtailment in percent</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.94800751797322902"/>
+              <c:y val="6.8526403473774672E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516150360"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98836864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516150360"/>
+        <c:axId val="98836864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="590413944"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="98835072"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3"/>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:srgbClr val="4472C4">
+                  <a:tint val="44500"/>
+                  <a:satMod val="160000"/>
+                </a:srgbClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="4472C4">
+                  <a:tint val="23500"/>
+                  <a:satMod val="160000"/>
+                </a:srgbClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0383200340980657E-2"/>
+          <c:y val="0.85480324342799596"/>
+          <c:w val="0.78810457065469575"/>
+          <c:h val="0.10505058882488119"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300">
+          <a:latin typeface="Caladea" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2120,15 +2369,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
+      <xdr:colOff>78438</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>100851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:colOff>728382</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2441,29 +2690,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2507,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2551,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2562,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2661,7 +2910,7 @@
         <v>23.155999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2672,7 +2921,7 @@
         <v>15.313000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2683,7 +2932,7 @@
         <v>18.609000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2694,7 +2943,7 @@
         <v>21.014999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -2705,7 +2954,7 @@
         <v>22.625</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2716,7 +2965,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2727,7 +2976,7 @@
         <v>23.984000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -2738,7 +2987,7 @@
         <v>19.781999999999982</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -2749,7 +2998,7 @@
         <v>26.187999999999988</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -2760,7 +3009,7 @@
         <v>28.203999999999979</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -2771,7 +3020,7 @@
         <v>64.843000000000018</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -2782,7 +3031,7 @@
         <v>113.18699999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -2793,7 +3042,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -2804,7 +3053,7 @@
         <v>60.593999999999937</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -2815,7 +3064,7 @@
         <v>66.079000000000065</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2826,7 +3075,7 @@
         <v>22.077999999999975</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -2837,7 +3086,7 @@
         <v>20.157000000000039</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -2848,7 +3097,7 @@
         <v>24741048093.615009</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -2859,7 +3108,7 @@
         <v>25121469671.608917</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -2870,7 +3119,7 @@
         <v>25549413047.331921</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -2881,7 +3130,7 @@
         <v>26104690120.197624</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -2892,7 +3141,7 @@
         <v>26719669156.195465</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -2903,7 +3152,7 @@
         <v>27434588117.984245</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
@@ -2914,7 +3163,7 @@
         <v>28265398288.975014</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -2925,7 +3174,7 @@
         <v>29298035996.875664</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -2936,7 +3185,7 @@
         <v>30587968241.579922</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -2947,7 +3196,7 @@
         <v>32186222461.709042</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
@@ -2958,7 +3207,7 @@
         <v>34303342523.127987</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -2969,7 +3218,7 @@
         <v>36861762834.638046</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -2980,7 +3229,7 @@
         <v>39939815752.827232</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
@@ -2991,7 +3240,7 @@
         <v>44451292277.251152</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
@@ -3002,7 +3251,7 @@
         <v>50615133385.741348</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -3013,7 +3262,7 @@
         <v>59823487563.426979</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -3024,7 +3273,7 @@
         <v>119064658600.44469</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
@@ -3035,7 +3284,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
@@ -3046,7 +3295,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
@@ -3057,7 +3306,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
@@ -3068,7 +3317,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -3079,7 +3328,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>39</v>
       </c>
@@ -3090,7 +3339,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>39</v>
       </c>
@@ -3101,7 +3350,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
@@ -3112,7 +3361,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>39</v>
       </c>
@@ -3123,7 +3372,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -3134,7 +3383,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -3145,7 +3394,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>39</v>
       </c>
@@ -3156,7 +3405,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>39</v>
       </c>
@@ -3167,7 +3416,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>39</v>
       </c>
@@ -3178,7 +3427,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>39</v>
       </c>
@@ -3189,7 +3438,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>39</v>
       </c>
@@ -3200,7 +3449,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
@@ -3211,7 +3460,7 @@
         <v>504164285</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -3222,7 +3471,7 @@
         <v>100832856.99999985</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -3233,7 +3482,7 @@
         <v>126043431.94562975</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,7 +3493,7 @@
         <v>151629934.07056296</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -3255,7 +3504,7 @@
         <v>177757158.34931144</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -3266,7 +3515,7 @@
         <v>204568632.2764096</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
@@ -3277,7 +3526,7 @@
         <v>233012505.4107686</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>40</v>
       </c>
@@ -3288,7 +3537,7 @@
         <v>262663674.47006804</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>40</v>
       </c>
@@ -3299,7 +3548,7 @@
         <v>294912947.97113138</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>40</v>
       </c>
@@ -3310,7 +3559,7 @@
         <v>329850197.70005178</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>40</v>
       </c>
@@ -3321,7 +3570,7 @@
         <v>367998315.79665565</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -3332,7 +3581,7 @@
         <v>412474363.21996742</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -3343,7 +3592,7 @@
         <v>459951486.65319592</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
@@ -3354,7 +3603,7 @@
         <v>513670167.04170418</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>40</v>
       </c>
@@ -3365,7 +3614,7 @@
         <v>581262072.5286231</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>40</v>
       </c>
@@ -3376,7 +3625,7 @@
         <v>660907300.08965111</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -3387,7 +3636,7 @@
         <v>748355350.31566215</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>40</v>
       </c>
@@ -3398,7 +3647,7 @@
         <v>861797483.25566554</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>41</v>
       </c>
@@ -3409,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>41</v>
       </c>
@@ -3420,7 +3669,7 @@
         <v>0.99998127077621601</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>41</v>
       </c>
@@ -3431,7 +3680,7 @@
         <v>0.99748962120904627</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>41</v>
       </c>
@@ -3442,7 +3691,7 @@
         <v>0.99268857236816366</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>41</v>
       </c>
@@ -3453,7 +3702,7 @@
         <v>0.9858095630590753</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -3464,7 +3713,7 @@
         <v>0.97343701766799207</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -3475,7 +3724,7 @@
         <v>0.95667235107513249</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>41</v>
       </c>
@@ -3486,7 +3735,7 @@
         <v>0.92941802414748065</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>41</v>
       </c>
@@ -3497,7 +3746,7 @@
         <v>0.9008393866151152</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>41</v>
       </c>
@@ -3508,7 +3757,7 @@
         <v>0.86984386487751475</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>41</v>
       </c>
@@ -3519,7 +3768,7 @@
         <v>0.82918229547288436</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>41</v>
       </c>
@@ -3530,7 +3779,7 @@
         <v>0.79118914941463681</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>41</v>
       </c>
@@ -3541,7 +3790,7 @@
         <v>0.74879441789390666</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>41</v>
       </c>
@@ -3552,7 +3801,7 @@
         <v>0.68878990377178229</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>41</v>
       </c>
@@ -3563,7 +3812,7 @@
         <v>0.63548392728718461</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>41</v>
       </c>
@@ -3574,7 +3823,7 @@
         <v>0.58386353145179548</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>41</v>
       </c>
@@ -3585,7 +3834,7 @@
         <v>0.52084529261226631</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>42</v>
       </c>
@@ -3596,7 +3845,7 @@
         <v>2.8996035003992876E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>42</v>
       </c>
@@ -3607,7 +3856,7 @@
         <v>4.0421931837234994E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
@@ -3618,7 +3867,7 @@
         <v>1.4405484111010664E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>42</v>
       </c>
@@ -3629,7 +3878,7 @@
         <v>2.1617837402366745E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>42</v>
       </c>
@@ -3640,7 +3889,7 @@
         <v>2.7517882459959977E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>42</v>
       </c>
@@ -3651,7 +3900,7 @@
         <v>3.5203429365128713E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>42</v>
       </c>
@@ -3662,7 +3911,7 @@
         <v>4.1194749805586621E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>42</v>
       </c>
@@ -3673,7 +3922,7 @@
         <v>4.853069733297443E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>42</v>
       </c>
@@ -3684,7 +3933,7 @@
         <v>6.461787888308354E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>42</v>
       </c>
@@ -3695,7 +3944,7 @@
         <v>6.8086583249999083E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>42</v>
       </c>
@@ -3706,7 +3955,7 @@
         <v>7.4858041510493745E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>42</v>
       </c>
@@ -3717,7 +3966,7 @@
         <v>8.5552503149389586E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>43</v>
       </c>
@@ -3728,7 +3977,7 @@
         <v>1.0000233659905333E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>43</v>
       </c>
@@ -3739,7 +3988,7 @@
         <v>3.5787388862737152E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>43</v>
       </c>
@@ -3750,7 +3999,7 @@
         <v>5.3785831398030347E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>43</v>
       </c>
@@ -3761,7 +4010,7 @@
         <v>6.8501031725609349E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>43</v>
       </c>
@@ -3772,7 +4021,7 @@
         <v>8.7810352641461507E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>43</v>
       </c>
@@ -3783,7 +4032,7 @@
         <v>1.029021168507447E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>43</v>
       </c>
@@ -3794,7 +4043,7 @@
         <v>1.2129762491403762E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>43</v>
       </c>
@@ -3805,7 +4054,7 @@
         <v>1.6150592648037875E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>43</v>
       </c>
@@ -3816,7 +4065,7 @@
         <v>1.7017560617504757E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>43</v>
       </c>
@@ -3827,7 +4076,7 @@
         <v>1.8710018895133018E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>43</v>
       </c>
@@ -3838,7 +4087,7 @@
         <v>2.1382992637158565E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>44</v>
       </c>
@@ -3849,7 +4098,7 @@
         <v>1.419043694092564E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>44</v>
       </c>
@@ -3860,7 +4109,7 @@
         <v>2.6054450435744225E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>44</v>
       </c>
@@ -3871,7 +4120,7 @@
         <v>3.6243285923412437E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>44</v>
       </c>
@@ -3882,7 +4131,7 @@
         <v>4.5349746516770463E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>44</v>
       </c>
@@ -3893,7 +4142,7 @@
         <v>6.1303521719955165E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>44</v>
       </c>
@@ -3904,7 +4153,7 @@
         <v>8.197047337512206E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>44</v>
       </c>
@@ -3915,7 +4164,7 @@
         <v>0.10919188106100687</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>44</v>
       </c>
@@ -3926,7 +4175,7 @@
         <v>0.13671156265927012</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>44</v>
       </c>
@@ -3937,7 +4186,7 @@
         <v>0.16627394993154701</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>44</v>
       </c>
@@ -3948,7 +4197,7 @@
         <v>0.19812493111008436</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>44</v>
       </c>
@@ -3959,7 +4208,7 @@
         <v>0.24536046683032056</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>44</v>
       </c>
@@ -3970,7 +4219,7 @@
         <v>0.28513040442234722</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>44</v>
       </c>
@@ -3981,7 +4230,7 @@
         <v>0.32943269372611012</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>45</v>
       </c>
@@ -3992,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>45</v>
       </c>
@@ -4003,7 +4252,7 @@
         <v>0.99998127077621601</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>45</v>
       </c>
@@ -4014,7 +4263,7 @@
         <v>0.99748962120904616</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>45</v>
       </c>
@@ -4025,7 +4274,7 @@
         <v>0.99268857236816299</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>45</v>
       </c>
@@ -4036,7 +4285,7 @@
         <v>0.98580956305907441</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>45</v>
       </c>
@@ -4047,7 +4296,7 @@
         <v>0.97394554956425572</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>45</v>
       </c>
@@ -4058,7 +4307,7 @@
         <v>0.96375671407658758</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>45</v>
       </c>
@@ -4069,7 +4318,7 @@
         <v>0.95465025348322952</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>45</v>
       </c>
@@ -4080,7 +4329,7 @@
         <v>0.93869647828004488</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,7 +4340,7 @@
         <v>0.91802952662487791</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>45</v>
       </c>
@@ -4102,7 +4351,7 @@
         <v>0.89080811893899314</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>45</v>
       </c>
@@ -4113,7 +4362,7 @@
         <v>0.86328843734072991</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>45</v>
       </c>
@@ -4124,7 +4373,7 @@
         <v>0.83372605006845302</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>45</v>
       </c>
@@ -4135,7 +4384,7 @@
         <v>0.80187506888991567</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>45</v>
       </c>
@@ -4146,7 +4395,7 @@
         <v>0.75463953316967947</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>45</v>
       </c>
@@ -4157,7 +4406,7 @@
         <v>0.71486959557765273</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>45</v>
       </c>
@@ -4168,7 +4417,7 @@
         <v>0.67056730627388994</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>46</v>
       </c>
@@ -4179,7 +4428,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>46</v>
       </c>
@@ -4190,7 +4439,7 @@
         <v>0.24999999999997252</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>46</v>
       </c>
@@ -4201,7 +4450,7 @@
         <v>0.2999999999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>46</v>
       </c>
@@ -4212,7 +4461,7 @@
         <v>0.35000000000000359</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>46</v>
       </c>
@@ -4223,7 +4472,7 @@
         <v>0.40000000000000124</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>46</v>
       </c>
@@ -4234,7 +4483,7 @@
         <v>0.45000000000000878</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>46</v>
       </c>
@@ -4245,7 +4494,7 @@
         <v>0.50000000000000366</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>46</v>
       </c>
@@ -4256,7 +4505,7 @@
         <v>0.55000000000000171</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>46</v>
       </c>
@@ -4267,7 +4516,7 @@
         <v>0.5999999999999992</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>46</v>
       </c>
@@ -4278,7 +4527,7 @@
         <v>0.64999999999999536</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>46</v>
       </c>
@@ -4289,7 +4538,7 @@
         <v>0.69999999999999429</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,7 +4549,7 @@
         <v>0.75000000000000377</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>46</v>
       </c>
@@ -4311,7 +4560,7 @@
         <v>0.80000000000001059</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>46</v>
       </c>
@@ -4322,7 +4571,7 @@
         <v>0.84999999999999332</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>46</v>
       </c>
@@ -4333,7 +4582,7 @@
         <v>0.89999999999998648</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>46</v>
       </c>
@@ -4344,7 +4593,7 @@
         <v>0.94999999999999762</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>46</v>
       </c>
@@ -4355,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>20</v>
       </c>
@@ -4366,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>20</v>
       </c>
@@ -4377,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>20</v>
       </c>
@@ -4388,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>20</v>
       </c>
@@ -4399,7 +4648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>20</v>
       </c>
@@ -4410,7 +4659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>20</v>
       </c>
@@ -4421,7 +4670,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>20</v>
       </c>
@@ -4432,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>20</v>
       </c>
@@ -4443,7 +4692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>20</v>
       </c>
@@ -4460,14 +4709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView topLeftCell="A204" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
@@ -4487,7 +4736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -4504,7 +4753,7 @@
         <v>3.5397698348784452</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -4521,7 +4770,7 @@
         <v>3.8866522170000004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -4538,7 +4787,7 @@
         <v>3.8866522170000004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -4555,7 +4804,7 @@
         <v>4.8501021174196746</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -4572,7 +4821,7 @@
         <v>6.24744522920754</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -4589,7 +4838,7 @@
         <v>7.7393022578602606</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -4606,7 +4855,7 @@
         <v>9.1929742278783682</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -4623,7 +4872,7 @@
         <v>10.053140070428807</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -4640,7 +4889,7 @@
         <v>11.690750151828025</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -4657,7 +4906,7 @@
         <v>13.690994304130042</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -4674,7 +4923,7 @@
         <v>15.810286471176097</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -4691,7 +4940,7 @@
         <v>18.646562179412534</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -4708,7 +4957,7 @@
         <v>21.654205209000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -4725,7 +4974,7 @@
         <v>24.106131875152364</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -4742,7 +4991,7 @@
         <v>29.308391139927171</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -4759,7 +5008,7 @@
         <v>34.717016324454221</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -4776,7 +5025,7 @@
         <v>38.866522170000003</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4790,7 +5039,7 @@
         <v>3.3252121697462636E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4804,7 +5053,7 @@
         <v>4.7985793324831029E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -4818,7 +5067,7 @@
         <v>0.16124580342177772</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -4832,7 +5081,7 @@
         <v>0.24550901410612891</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -4846,7 +5095,7 @@
         <v>0.34135704912521081</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -4860,7 +5109,7 @@
         <v>0.51012962843441789</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4874,7 +5123,7 @@
         <v>0.73998494124166025</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -4888,7 +5137,7 @@
         <v>1.1359240610788002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -4902,7 +5151,7 @@
         <v>2.1212868388408985</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -4916,7 +5165,7 @@
         <v>3.0399498856486407</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -4930,7 +5179,7 @@
         <v>6.0952283251308232</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -4944,7 +5193,7 @@
         <v>59.138353322776311</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -4958,7 +5207,7 @@
         <v>1.3966615093284374</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -4972,7 +5221,7 @@
         <v>1.6759715926690069</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -4986,7 +5235,7 @@
         <v>2.1385898255553264</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -5000,7 +5249,7 @@
         <v>3.2609620636279999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -5014,7 +5263,7 @@
         <v>6.0092416635497701</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -5028,7 +5277,7 @@
         <v>5.8165190695560005</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -5045,7 +5294,7 @@
         <v>1.0102715637282402</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -5062,7 +5311,7 @@
         <v>1.0576017678603977</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -5079,7 +5328,7 @@
         <v>1.1047276493556766</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -5096,7 +5345,7 @@
         <v>1.1474703475757813</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -5113,7 +5362,7 @@
         <v>1.0623752531422914</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -5127,7 +5376,7 @@
         <v>4.646984372532609</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -5141,7 +5390,7 @@
         <v>4.3738484704225105</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -5155,7 +5404,7 @@
         <v>4.0927108952729006</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -5169,7 +5418,7 @@
         <v>3.7663630696015278</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -5186,7 +5435,7 @@
         <v>1.0164671153763023</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -5203,7 +5452,7 @@
         <v>1.0160547002735341</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -5217,7 +5466,7 @@
         <v>2.4341570537919348</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -5231,7 +5480,7 @@
         <v>1.821537825350084</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -5245,7 +5494,7 @@
         <v>12.344626088157581</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -5259,7 +5508,7 @@
         <v>11.54308297562236</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -5273,7 +5522,7 @@
         <v>10.746561334549467</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -5287,7 +5536,7 @@
         <v>9.9564968833610425</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -5301,7 +5550,7 @@
         <v>9.162761054069815</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
@@ -5315,7 +5564,7 @@
         <v>8.3579716453467192</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>50</v>
       </c>
@@ -5329,7 +5578,7 @@
         <v>7.5766272199839273</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
@@ -5343,7 +5592,7 @@
         <v>6.8010997408340641</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
@@ -5357,7 +5606,7 @@
         <v>6.0074968890820939</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
@@ -5371,7 +5620,7 @@
         <v>5.2159816276311783</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
@@ -5385,7 +5634,7 @@
         <v>4.4228087149625024</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
@@ -5399,7 +5648,7 @@
         <v>3.6160649680438275</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>50</v>
       </c>
@@ -5413,7 +5662,7 @@
         <v>2.8303947639449327</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
@@ -5427,7 +5676,7 @@
         <v>2.0534556573402059</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>50</v>
       </c>
@@ -5441,7 +5690,7 @@
         <v>1.2636099153343077</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>23</v>
       </c>
@@ -5455,7 +5704,7 @@
         <v>24.74104809361501</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>23</v>
       </c>
@@ -5469,7 +5718,7 @@
         <v>25.121469671608917</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
@@ -5483,7 +5732,7 @@
         <v>25.549413047331921</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
         <v>23</v>
       </c>
@@ -5497,7 +5746,7 @@
         <v>26.104690120197628</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -5511,7 +5760,7 @@
         <v>26.719669156195465</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -5525,7 +5774,7 @@
         <v>27.434588117984248</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
@@ -5539,7 +5788,7 @@
         <v>28.265398288975014</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
         <v>23</v>
       </c>
@@ -5553,7 +5802,7 @@
         <v>29.298035996875665</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>23</v>
       </c>
@@ -5567,7 +5816,7 @@
         <v>30.587968241579922</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
         <v>23</v>
       </c>
@@ -5581,7 +5830,7 @@
         <v>32.186222461709043</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
         <v>23</v>
       </c>
@@ -5595,7 +5844,7 @@
         <v>34.303342523127988</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
         <v>23</v>
       </c>
@@ -5609,7 +5858,7 @@
         <v>36.86176283463805</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
         <v>23</v>
       </c>
@@ -5623,7 +5872,7 @@
         <v>39.939815752827236</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
         <v>23</v>
       </c>
@@ -5637,7 +5886,7 @@
         <v>44.451292277251156</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
         <v>23</v>
       </c>
@@ -5651,7 +5900,7 @@
         <v>50.615133385741352</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
         <v>23</v>
       </c>
@@ -5665,7 +5914,7 @@
         <v>59.82348756342698</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
         <v>23</v>
       </c>
@@ -5679,7 +5928,7 @@
         <v>119.06465860044469</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5690,19 +5939,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
@@ -5714,7 +5963,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="B3">
         <v>20</v>
       </c>
@@ -5732,7 +5981,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -5753,7 +6002,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -5774,7 +6023,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -5795,7 +6044,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -5816,7 +6065,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -5837,7 +6086,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -5855,7 +6104,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -5873,7 +6122,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -5891,7 +6140,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -5909,7 +6158,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -5927,7 +6176,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -5945,7 +6194,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -5963,7 +6212,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -5981,7 +6230,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -5999,7 +6248,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -6017,7 +6266,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -6035,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20">
         <v>20</v>
       </c>
@@ -6049,7 +6298,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -6066,7 +6315,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -6083,7 +6332,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -6100,7 +6349,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -6117,7 +6366,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -6134,7 +6383,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -6148,7 +6397,7 @@
         <v>2.7008125327961325</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -6162,7 +6411,7 @@
         <v>6.4196097352863086</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -6176,7 +6425,7 @@
         <v>8.1074343678988559</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -6190,7 +6439,7 @@
         <v>10.199577289157723</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -6204,7 +6453,7 @@
         <v>12.256004779575044</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -6218,7 +6467,7 @@
         <v>14.890981014137127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -6232,7 +6481,7 @@
         <v>18.939120142863072</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -6246,7 +6495,7 @@
         <v>27.387947114694033</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -6260,7 +6509,7 @@
         <v>32.865100841662965</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -6274,7 +6523,7 @@
         <v>41.936850590588151</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -6288,7 +6537,7 @@
         <v>63.946099999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -6305,7 +6554,7 @@
         <v>18.328270738145839</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -6322,7 +6571,7 @@
         <v>20.004249999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -6339,7 +6588,7 @@
         <v>21.117597449350519</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
@@ -6356,7 +6605,7 @@
         <v>22.106935597570789</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -6373,7 +6622,7 @@
         <v>23.092002811766665</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -6390,7 +6639,7 @@
         <v>23.98544881907609</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -6407,7 +6656,7 @@
         <v>22.206715245175065</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -6424,7 +6673,7 @@
         <v>19.47674979674872</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -6441,7 +6690,7 @@
         <v>18.927785969445878</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -6458,7 +6707,7 @@
         <v>19.311446016434573</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -6475,7 +6724,7 @@
         <v>20.114046597123163</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -6492,7 +6741,7 @@
         <v>21.247102396711021</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -6509,7 +6758,7 @@
         <v>21.238481728333351</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -6526,7 +6775,7 @@
         <v>19.408351799868651</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -6543,7 +6792,7 @@
         <v>19.062359504639861</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -6560,12 +6809,12 @@
         <v>20.084664017479167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6576,14 +6825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="5" max="10" width="0" hidden="1" customWidth="1"/>
@@ -6591,7 +6840,7 @@
     <col min="19" max="19" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6638,7 +6887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
@@ -6682,7 +6931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -6707,7 +6956,7 @@
         <v>32.513787200312422</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -6732,7 +6981,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -6760,7 +7009,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -6791,7 +7040,7 @@
         <v>44.549559858877991</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -6822,7 +7071,7 @@
         <v>57.384551596145343</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -6853,7 +7102,7 @@
         <v>71.087680394227391</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -6887,7 +7136,7 @@
         <v>84.440068627642205</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -6924,7 +7173,7 @@
         <v>92.340935199839208</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -6964,7 +7213,7 @@
         <v>107.38284701542166</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -7004,7 +7253,7 @@
         <v>125.75565534770421</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -7047,7 +7296,7 @@
         <v>145.22195336958976</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -7093,7 +7342,7 @@
         <v>171.27394802482468</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -7139,7 +7388,7 @@
         <v>198.90000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -7188,7 +7437,7 @@
         <v>221.42163998589109</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -7237,7 +7486,7 @@
         <v>269.20586285515861</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -7289,7 +7538,7 @@
         <v>318.88561507046091</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -7344,7 +7593,7 @@
         <v>357.00000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -7370,7 +7619,7 @@
         <v>2360.6956434165695</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -7396,7 +7645,7 @@
         <v>380648.57056447095</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -7425,7 +7674,7 @@
         <v>1299658.5993119818</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -7457,7 +7706,7 @@
         <v>2902918.2764097955</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -7492,7 +7741,7 @@
         <v>6054378.2890977217</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -7530,7 +7779,7 @@
         <v>9257124.8436458111</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -7571,7 +7820,7 @@
         <v>12318811.000034433</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -7615,7 +7864,7 @@
         <v>18446852.04702647</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -7659,7 +7908,7 @@
         <v>27644169.716563694</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -7706,7 +7955,7 @@
         <v>41416899.680438504</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -7762,7 +8011,7 @@
         <v>58147688.325286664</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -7818,7 +8067,7 @@
         <v>79179270.510886341</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7871,7 +8120,7 @@
         <v>105774781.12147437</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -7927,7 +8176,7 @@
         <v>150913493.63973701</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -7983,7 +8232,7 @@
         <v>199377120.94245195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -8042,7 +8291,7 @@
         <v>265476457.11611915</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -8067,7 +8316,7 @@
         <v>3.1032286715004363E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -8092,7 +8341,7 @@
         <v>5.0037774299093798E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -8121,7 +8370,7 @@
         <v>8.5864344748973007E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -8153,7 +8402,7 @@
         <v>1.7637964294485876E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -8188,7 +8437,7 @@
         <v>2.5983061631926867E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -8226,7 +8475,7 @@
         <v>3.5243262557421835E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -8267,7 +8516,7 @@
         <v>4.1771007630496584E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -8311,7 +8560,7 @@
         <v>5.5924938580151747E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -8355,7 +8604,7 @@
         <v>7.5120370202561043E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -8402,7 +8651,7 @@
         <v>0.10041084579686019</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
@@ -8452,7 +8701,7 @@
         <v>0.12642135097419463</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -8502,7 +8751,7 @@
         <v>0.1541441874401431</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
@@ -8555,7 +8804,7 @@
         <v>0.18197433846204655</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
@@ -8608,7 +8857,7 @@
         <v>0.2283429062128168</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="1" t="s">
         <v>38</v>
       </c>
@@ -8664,7 +8913,7 @@
         <v>0.26642038552721392</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
@@ -8723,7 +8972,7 @@
         <v>0.30804970108895319</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -8750,7 +8999,7 @@
         <v>76072242.600000024</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -8777,7 +9026,7 @@
         <v>76072242.600000024</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -8808,7 +9057,7 @@
         <v>151361849.10180971</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -8843,7 +9092,7 @@
         <v>164583521.54150406</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -8882,7 +9131,7 @@
         <v>233012505.4107697</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -8925,7 +9174,7 @@
         <v>262663674.47006875</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -8972,7 +9221,7 @@
         <v>294912947.97113287</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -9023,7 +9272,7 @@
         <v>329850197.70005471</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
@@ -9074,7 +9323,7 @@
         <v>367998315.79665506</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
@@ -9129,7 +9378,7 @@
         <v>412474363.21996999</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
@@ -9188,7 +9437,7 @@
         <v>459951486.65319902</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -9247,7 +9496,7 @@
         <v>513670167.04170597</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
@@ -9310,7 +9559,7 @@
         <v>581262072.52862346</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
         <v>55</v>
       </c>
@@ -9373,7 +9622,7 @@
         <v>660907300.08965039</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
         <v>55</v>
       </c>
@@ -9440,7 +9689,7 @@
         <v>748355350.31566215</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
@@ -9511,7 +9760,7 @@
         <v>861797483.25566304</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -9522,14 +9771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9537,19 +9786,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
+    <sheetView topLeftCell="A195" workbookViewId="0">
       <selection activeCell="E210" sqref="E210:E225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -9566,7 +9815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -9580,7 +9829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -9594,7 +9843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -9608,7 +9857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -9622,7 +9871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -9636,7 +9885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -9650,7 +9899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -9664,7 +9913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -9678,7 +9927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -9692,7 +9941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -9706,7 +9955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -9720,7 +9969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -9734,7 +9983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -9748,7 +9997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -9762,7 +10011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -9776,7 +10025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -9790,7 +10039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -9804,7 +10053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -9818,7 +10067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -9832,7 +10081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -9846,7 +10095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -9860,7 +10109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -9874,7 +10123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -9888,7 +10137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -9902,7 +10151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -9916,7 +10165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -9930,7 +10179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -9944,7 +10193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -9958,7 +10207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -9972,7 +10221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -9986,7 +10235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -10000,7 +10249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -10014,7 +10263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -10028,7 +10277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -10042,7 +10291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -10056,7 +10305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -10070,7 +10319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -10084,7 +10333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -10098,7 +10347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -10112,7 +10361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -10126,7 +10375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -10140,7 +10389,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -10154,7 +10403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -10168,7 +10417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -10182,7 +10431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -10196,7 +10445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -10210,7 +10459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -10224,7 +10473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -10238,7 +10487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -10252,7 +10501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -10266,7 +10515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -10280,11 +10529,11 @@
         <v>28</v>
       </c>
       <c r="E52">
-        <f>C52*100</f>
+        <f t="shared" ref="E52:E67" si="0">C52*100</f>
         <v>5.6443639900000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -10298,11 +10547,11 @@
         <v>28</v>
       </c>
       <c r="E53">
-        <f>C53*100</f>
+        <f t="shared" si="0"/>
         <v>0.12756440975253999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -10316,11 +10565,11 @@
         <v>28</v>
       </c>
       <c r="E54">
-        <f>C54*100</f>
+        <f t="shared" si="0"/>
         <v>0.27965421089902198</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -10334,11 +10583,11 @@
         <v>28</v>
       </c>
       <c r="E55">
-        <f>C55*100</f>
+        <f t="shared" si="0"/>
         <v>1.17589722112947</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -10352,11 +10601,11 @@
         <v>28</v>
       </c>
       <c r="E56">
-        <f>C56*100</f>
+        <f t="shared" si="0"/>
         <v>2.6208794195499499</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -10370,11 +10619,11 @@
         <v>28</v>
       </c>
       <c r="E57">
-        <f>C57*100</f>
+        <f t="shared" si="0"/>
         <v>3.6542104432162001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -10388,11 +10637,11 @@
         <v>28</v>
       </c>
       <c r="E58">
-        <f>C58*100</f>
+        <f t="shared" si="0"/>
         <v>5.0563528410938501</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -10406,11 +10655,11 @@
         <v>28</v>
       </c>
       <c r="E59">
-        <f>C59*100</f>
+        <f t="shared" si="0"/>
         <v>7.0829962479840205</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -10424,11 +10673,11 @@
         <v>28</v>
       </c>
       <c r="E60">
-        <f>C60*100</f>
+        <f t="shared" si="0"/>
         <v>9.3545359714551495</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -10442,11 +10691,11 @@
         <v>28</v>
       </c>
       <c r="E61">
-        <f>C61*100</f>
+        <f t="shared" si="0"/>
         <v>10.904551512259001</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -10460,11 +10709,11 @@
         <v>28</v>
       </c>
       <c r="E62">
-        <f>C62*100</f>
+        <f t="shared" si="0"/>
         <v>13.303703094105099</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -10478,11 +10727,11 @@
         <v>28</v>
       </c>
       <c r="E63">
-        <f>C63*100</f>
+        <f t="shared" si="0"/>
         <v>16.212429865021399</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -10496,11 +10745,11 @@
         <v>28</v>
       </c>
       <c r="E64">
-        <f>C64*100</f>
+        <f t="shared" si="0"/>
         <v>19.553493293102701</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -10514,11 +10763,11 @@
         <v>28</v>
       </c>
       <c r="E65">
-        <f>C65*100</f>
+        <f t="shared" si="0"/>
         <v>22.335963428928199</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -10532,11 +10781,11 @@
         <v>28</v>
       </c>
       <c r="E66">
-        <f>C66*100</f>
+        <f t="shared" si="0"/>
         <v>25.6576477553469</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -10550,11 +10799,11 @@
         <v>28</v>
       </c>
       <c r="E67">
-        <f>C67*100</f>
+        <f t="shared" si="0"/>
         <v>59.022799047311103</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -10568,7 +10817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -10582,7 +10831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -10596,7 +10845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -10610,7 +10859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -10624,7 +10873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -10638,7 +10887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -10652,7 +10901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -10666,7 +10915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -10680,7 +10929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -10694,7 +10943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -10708,7 +10957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -10722,7 +10971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -10736,7 +10985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -10750,7 +10999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -10764,7 +11013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -10778,7 +11027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -10792,7 +11041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -10806,11 +11055,11 @@
         <v>24</v>
       </c>
       <c r="E85">
-        <f>B85/100</f>
+        <f t="shared" ref="E85:E101" si="1">B85/100</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -10824,11 +11073,11 @@
         <v>24</v>
       </c>
       <c r="E86">
-        <f>B86/100</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -10842,11 +11091,11 @@
         <v>24</v>
       </c>
       <c r="E87">
-        <f>B87/100</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>51</v>
       </c>
@@ -10860,11 +11109,11 @@
         <v>24</v>
       </c>
       <c r="E88">
-        <f>B88/100</f>
+        <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -10878,11 +11127,11 @@
         <v>24</v>
       </c>
       <c r="E89">
-        <f>B89/100</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>51</v>
       </c>
@@ -10896,11 +11145,11 @@
         <v>24</v>
       </c>
       <c r="E90">
-        <f>B90/100</f>
+        <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -10914,11 +11163,11 @@
         <v>24</v>
       </c>
       <c r="E91">
-        <f>B91/100</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -10932,11 +11181,11 @@
         <v>24</v>
       </c>
       <c r="E92">
-        <f>B92/100</f>
+        <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>51</v>
       </c>
@@ -10950,11 +11199,11 @@
         <v>24</v>
       </c>
       <c r="E93">
-        <f>B93/100</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -10968,11 +11217,11 @@
         <v>24</v>
       </c>
       <c r="E94">
-        <f>B94/100</f>
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -10986,11 +11235,11 @@
         <v>24</v>
       </c>
       <c r="E95">
-        <f>B95/100</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -11004,11 +11253,11 @@
         <v>24</v>
       </c>
       <c r="E96">
-        <f>B96/100</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -11022,11 +11271,11 @@
         <v>24</v>
       </c>
       <c r="E97">
-        <f>B97/100</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -11040,11 +11289,11 @@
         <v>24</v>
       </c>
       <c r="E98">
-        <f>B98/100</f>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -11058,11 +11307,11 @@
         <v>24</v>
       </c>
       <c r="E99">
-        <f>B99/100</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -11076,11 +11325,11 @@
         <v>24</v>
       </c>
       <c r="E100">
-        <f>B100/100</f>
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>51</v>
       </c>
@@ -11094,11 +11343,11 @@
         <v>24</v>
       </c>
       <c r="E101">
-        <f>B101/100</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>52</v>
       </c>
@@ -11112,7 +11361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -11126,7 +11375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>52</v>
       </c>
@@ -11140,7 +11389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>52</v>
       </c>
@@ -11154,7 +11403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>52</v>
       </c>
@@ -11168,7 +11417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -11182,7 +11431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -11196,7 +11445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>52</v>
       </c>
@@ -11210,7 +11459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>52</v>
       </c>
@@ -11224,7 +11473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -11238,7 +11487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>52</v>
       </c>
@@ -11252,7 +11501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>52</v>
       </c>
@@ -11266,7 +11515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>52</v>
       </c>
@@ -11280,7 +11529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>52</v>
       </c>
@@ -11294,7 +11543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>52</v>
       </c>
@@ -11308,7 +11557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>52</v>
       </c>
@@ -11322,7 +11571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>52</v>
       </c>
@@ -11336,7 +11585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -11350,7 +11599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -11364,7 +11613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>59</v>
       </c>
@@ -11378,7 +11627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>59</v>
       </c>
@@ -11392,7 +11641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>59</v>
       </c>
@@ -11406,7 +11655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -11420,7 +11669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -11434,7 +11683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -11448,7 +11697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -11462,7 +11711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -11476,7 +11725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -11490,7 +11739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -11504,7 +11753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -11518,7 +11767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -11532,7 +11781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>58</v>
       </c>
@@ -11546,7 +11795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>58</v>
       </c>
@@ -11560,7 +11809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>58</v>
       </c>
@@ -11574,7 +11823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>58</v>
       </c>
@@ -11588,7 +11837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>58</v>
       </c>
@@ -11602,7 +11851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>58</v>
       </c>
@@ -11616,7 +11865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>58</v>
       </c>
@@ -11630,7 +11879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>58</v>
       </c>
@@ -11644,7 +11893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>58</v>
       </c>
@@ -11658,7 +11907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>58</v>
       </c>
@@ -11672,7 +11921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>37</v>
       </c>
@@ -11686,7 +11935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -11700,7 +11949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -11714,7 +11963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -11728,7 +11977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -11742,7 +11991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -11756,7 +12005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>37</v>
       </c>
@@ -11770,7 +12019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -11784,7 +12033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>37</v>
       </c>
@@ -11798,7 +12047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>37</v>
       </c>
@@ -11812,7 +12061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>37</v>
       </c>
@@ -11826,7 +12075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -11840,7 +12089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -11854,7 +12103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -11868,7 +12117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>37</v>
       </c>
@@ -11882,7 +12131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -11896,7 +12145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>37</v>
       </c>
@@ -11910,7 +12159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>38</v>
       </c>
@@ -11924,11 +12173,11 @@
         <v>29</v>
       </c>
       <c r="E160">
-        <f>C160*100</f>
+        <f t="shared" ref="E160:E176" si="2">C160*100</f>
         <v>4.07169702926546E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>38</v>
       </c>
@@ -11942,11 +12191,11 @@
         <v>29</v>
       </c>
       <c r="E161">
-        <f>C161*100</f>
+        <f t="shared" si="2"/>
         <v>0.56806433300874604</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>38</v>
       </c>
@@ -11960,11 +12209,11 @@
         <v>29</v>
       </c>
       <c r="E162">
-        <f>C162*100</f>
+        <f t="shared" si="2"/>
         <v>1.11519585083988</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>38</v>
       </c>
@@ -11978,11 +12227,11 @@
         <v>29</v>
       </c>
       <c r="E163">
-        <f>C163*100</f>
+        <f t="shared" si="2"/>
         <v>1.62923607396285</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>38</v>
       </c>
@@ -11996,11 +12245,11 @@
         <v>29</v>
       </c>
       <c r="E164">
-        <f>C164*100</f>
+        <f t="shared" si="2"/>
         <v>2.33817915857973</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>38</v>
       </c>
@@ -12014,11 +12263,11 @@
         <v>29</v>
       </c>
       <c r="E165">
-        <f>C165*100</f>
+        <f t="shared" si="2"/>
         <v>3.3392343679641998</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>38</v>
       </c>
@@ -12032,11 +12281,11 @@
         <v>29</v>
       </c>
       <c r="E166">
-        <f>C166*100</f>
+        <f t="shared" si="2"/>
         <v>4.5360840523508399</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>38</v>
       </c>
@@ -12050,11 +12299,11 @@
         <v>29</v>
       </c>
       <c r="E167">
-        <f>C167*100</f>
+        <f t="shared" si="2"/>
         <v>6.6498929613233004</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>38</v>
       </c>
@@ -12068,11 +12317,11 @@
         <v>29</v>
       </c>
       <c r="E168">
-        <f>C168*100</f>
+        <f t="shared" si="2"/>
         <v>9.3098126833452888</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>38</v>
       </c>
@@ -12086,11 +12335,11 @@
         <v>29</v>
       </c>
       <c r="E169">
-        <f>C169*100</f>
+        <f t="shared" si="2"/>
         <v>12.804990990477599</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>38</v>
       </c>
@@ -12104,11 +12353,11 @@
         <v>29</v>
       </c>
       <c r="E170">
-        <f>C170*100</f>
+        <f t="shared" si="2"/>
         <v>16.324597145404603</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>38</v>
       </c>
@@ -12122,11 +12371,11 @@
         <v>29</v>
       </c>
       <c r="E171">
-        <f>C171*100</f>
+        <f t="shared" si="2"/>
         <v>19.8992769365104</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>38</v>
       </c>
@@ -12140,11 +12389,11 @@
         <v>29</v>
       </c>
       <c r="E172">
-        <f>C172*100</f>
+        <f t="shared" si="2"/>
         <v>23.626112005662598</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>38</v>
       </c>
@@ -12158,11 +12407,11 @@
         <v>29</v>
       </c>
       <c r="E173">
-        <f>C173*100</f>
+        <f t="shared" si="2"/>
         <v>28.037441365411397</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>38</v>
       </c>
@@ -12176,11 +12425,11 @@
         <v>29</v>
       </c>
       <c r="E174">
-        <f>C174*100</f>
+        <f t="shared" si="2"/>
         <v>32.3353674300321</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>38</v>
       </c>
@@ -12194,11 +12443,11 @@
         <v>29</v>
       </c>
       <c r="E175">
-        <f>C175*100</f>
+        <f t="shared" si="2"/>
         <v>36.542656037556199</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -12212,11 +12461,11 @@
         <v>29</v>
       </c>
       <c r="E176">
-        <f>C176*100</f>
+        <f t="shared" si="2"/>
         <v>57.5307850497503</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>36</v>
       </c>
@@ -12230,7 +12479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -12244,7 +12493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>36</v>
       </c>
@@ -12258,7 +12507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>36</v>
       </c>
@@ -12272,7 +12521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -12286,7 +12535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -12300,7 +12549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>36</v>
       </c>
@@ -12314,7 +12563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -12328,7 +12577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>36</v>
       </c>
@@ -12342,7 +12591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -12356,7 +12605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>36</v>
       </c>
@@ -12370,7 +12619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>36</v>
       </c>
@@ -12384,7 +12633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -12398,7 +12647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>36</v>
       </c>
@@ -12412,7 +12661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -12426,7 +12675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -12440,7 +12689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>36</v>
       </c>
@@ -12454,7 +12703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
         <v>55</v>
       </c>
@@ -12466,7 +12715,7 @@
         <v>126298467.9260865</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
         <v>55</v>
       </c>
@@ -12474,11 +12723,11 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E209" si="0">C36/C53+C145/C162</f>
+        <f t="shared" ref="E195:E209" si="3">C36/C53+C145/C162</f>
         <v>152025405.03875268</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
         <v>55</v>
       </c>
@@ -12486,11 +12735,11 @@
         <v>4</v>
       </c>
       <c r="E196">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>178087964.09320658</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
         <v>55</v>
       </c>
@@ -12498,11 +12747,11 @@
         <v>5</v>
       </c>
       <c r="E197">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>205326417.09839058</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
         <v>55</v>
       </c>
@@ -12510,11 +12759,11 @@
         <v>6</v>
       </c>
       <c r="E198">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>234467952.02314407</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
         <v>55</v>
       </c>
@@ -12522,11 +12771,11 @@
         <v>7</v>
       </c>
       <c r="E199">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>265547516.07404202</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
         <v>55</v>
       </c>
@@ -12534,11 +12783,11 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>299884345.45231867</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
         <v>55</v>
       </c>
@@ -12546,11 +12795,11 @@
         <v>9</v>
       </c>
       <c r="E201">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>338456304.13971728</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
         <v>55</v>
       </c>
@@ -12558,11 +12807,11 @@
         <v>10</v>
       </c>
       <c r="E202">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>382390114.16010815</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
         <v>55</v>
       </c>
@@ -12570,11 +12819,11 @@
         <v>11</v>
       </c>
       <c r="E203">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>431045524.05953568</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
         <v>55</v>
       </c>
@@ -12582,11 +12831,11 @@
         <v>12</v>
       </c>
       <c r="E204">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>486881092.52111876</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
         <v>55</v>
       </c>
@@ -12594,11 +12843,11 @@
         <v>13</v>
       </c>
       <c r="E205">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>551482906.26417017</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
         <v>55</v>
       </c>
@@ -12606,11 +12855,11 @@
         <v>14</v>
       </c>
       <c r="E206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>629993611.22748876</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
         <v>55</v>
       </c>
@@ -12618,11 +12867,11 @@
         <v>15</v>
       </c>
       <c r="E207">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>720883479.38529849</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
         <v>55</v>
       </c>
@@ -12630,11 +12879,11 @@
         <v>16</v>
       </c>
       <c r="E208">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>828368417.50799131</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
         <v>55</v>
       </c>
@@ -12642,11 +12891,11 @@
         <v>17</v>
       </c>
       <c r="E209">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1358871866.8895099</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>38</v>
       </c>
@@ -12658,7 +12907,7 @@
         <v>2.0380022768854708E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>38</v>
       </c>
@@ -12666,11 +12915,11 @@
         <v>30</v>
       </c>
       <c r="E211">
-        <f t="shared" ref="E211:E225" si="1">SUM(C145+C36)/E195</f>
+        <f t="shared" ref="E211:E225" si="4">SUM(C145+C36)/E195</f>
         <v>5.1051963226415344E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>38</v>
       </c>
@@ -12678,11 +12927,11 @@
         <v>35</v>
       </c>
       <c r="E212">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.155387628290941E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -12690,11 +12939,11 @@
         <v>40</v>
       </c>
       <c r="E213">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.7828700028575686E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -12702,11 +12951,11 @@
         <v>45</v>
       </c>
       <c r="E214">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.0156500471035321E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>38</v>
       </c>
@@ -12714,11 +12963,11 @@
         <v>50</v>
       </c>
       <c r="E215">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.1526287411273281E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>38</v>
       </c>
@@ -12726,11 +12975,11 @@
         <v>55</v>
       </c>
       <c r="E216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9948742785453479E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -12738,11 +12987,11 @@
         <v>60</v>
       </c>
       <c r="E217">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.448360804496638E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>38</v>
       </c>
@@ -12750,11 +12999,11 @@
         <v>65</v>
       </c>
       <c r="E218">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1155668071474662</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>38</v>
       </c>
@@ -12762,11 +13011,11 @@
         <v>70</v>
       </c>
       <c r="E219">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1446161996862512</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>38</v>
       </c>
@@ -12774,11 +13023,11 @@
         <v>75</v>
       </c>
       <c r="E220">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1772773432647067</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>38</v>
       </c>
@@ -12786,11 +13035,11 @@
         <v>80</v>
       </c>
       <c r="E221">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.21254517794948066</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>38</v>
       </c>
@@ -12798,11 +13047,11 @@
         <v>85</v>
       </c>
       <c r="E222">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25355973061100029</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>38</v>
       </c>
@@ -12810,11 +13059,11 @@
         <v>90</v>
       </c>
       <c r="E223">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.29164520219413675</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>38</v>
       </c>
@@ -12822,11 +13071,11 @@
         <v>95</v>
       </c>
       <c r="E224">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.33086112351911201</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>38</v>
       </c>
@@ -12834,7 +13083,7 @@
         <v>100</v>
       </c>
       <c r="E225">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.5809283896631019</v>
       </c>
     </row>

--- a/analysis/Results_model/DOLORES_max_cap_6regions/Figure11_compare.xlsx
+++ b/analysis/Results_model/DOLORES_max_cap_6regions/Figure11_compare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">report_tech_M!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="62">
   <si>
     <t>model status</t>
   </si>
@@ -208,12 +208,6 @@
     <t>both</t>
   </si>
   <si>
-    <t>FLH storage</t>
-  </si>
-  <si>
-    <t>EP ratio storage</t>
-  </si>
-  <si>
     <t>tech</t>
   </si>
   <si>
@@ -299,7 +293,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -590,8 +583,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="101758080"/>
-        <c:axId val="101760000"/>
+        <c:axId val="114383872"/>
+        <c:axId val="114402432"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -673,25 +666,25 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101771520"/>
-        <c:axId val="101769984"/>
+        <c:axId val="114422144"/>
+        <c:axId val="114403968"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="101758080"/>
+        <c:axId val="114383872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101760000"/>
+        <c:crossAx val="114402432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101760000"/>
+        <c:axId val="114402432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,12 +692,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101758080"/>
+        <c:crossAx val="114383872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101769984"/>
+        <c:axId val="114403968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.34"/>
@@ -713,33 +706,32 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101771520"/>
+        <c:crossAx val="114422144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101771520"/>
+        <c:axId val="114422144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="101769984"/>
+        <c:crossAx val="114403968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -765,7 +757,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -848,7 +839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report_tech_M!$C$86:$C$99</c:f>
+              <c:f>report_tech_M!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -865,34 +856,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9363137556448602</c:v>
+                  <c:v>27.187103927446099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.6400463051956</c:v>
+                  <c:v>43.412656719508298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.911328960919899</c:v>
+                  <c:v>60.396607444319798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.173932317215403</c:v>
+                  <c:v>86.551849847157101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.429751223778197</c:v>
+                  <c:v>138.91811804019099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.444980417151</c:v>
+                  <c:v>196.12586450557299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168.11415311365599</c:v>
+                  <c:v>270.83564214092598</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>271.42902117712401</c:v>
+                  <c:v>352.83913678925398</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>434.84833573334402</c:v>
+                  <c:v>461.07218936113998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>777.42146498196905</c:v>
+                  <c:v>687.35800435822296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,7 +965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report_tech_M!$C$103:$C$116</c:f>
+              <c:f>report_tech_M!$C$20:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -991,41 +982,41 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.21491165297681</c:v>
+                  <c:v>6.1236850593377996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5403327857140101</c:v>
+                  <c:v>8.2065378444029893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9226329737072101</c:v>
+                  <c:v>10.2142698009644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3377290671086</c:v>
+                  <c:v>12.216238131962299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9134167885290099</c:v>
+                  <c:v>18.992394794164699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.9958469451784</c:v>
+                  <c:v>26.375416369456101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.6754604687768</c:v>
+                  <c:v>36.421343523685898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.593967915324299</c:v>
+                  <c:v>44.763685638172497</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.407884257261699</c:v>
+                  <c:v>53.542907442285802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.491496655314499</c:v>
+                  <c:v>58.610731907019499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69554944"/>
-        <c:axId val="69556864"/>
+        <c:axId val="116341376"/>
+        <c:axId val="116355840"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1051,81 +1042,63 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>report_tech_M!$E$210:$E$225</c:f>
+              <c:f>report_tech_M!$E$36:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2.0380022768854708E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1051963226415344E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.155387628290941E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7828700028575686E-2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0156500471035321E-2</c:v>
+                  <c:v>2.412777742385401E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1526287411273281E-2</c:v>
+                  <c:v>3.6911973078595645E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9948742785453479E-2</c:v>
+                  <c:v>5.5317787957186657E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.448360804496638E-2</c:v>
+                  <c:v>7.8215148988548533E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1155668071474662</c:v>
+                  <c:v>9.3484773441398716E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1446161996862512</c:v>
+                  <c:v>0.11099998851667732</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1772773432647067</c:v>
+                  <c:v>0.12543992127716888</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21254517794948066</c:v>
+                  <c:v>0.14632963513611816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25355973061100029</c:v>
+                  <c:v>0.17568778154431289</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.29164520219413675</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.33086112351911201</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.5809283896631019</c:v>
+                  <c:v>0.21790699135613234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69572480"/>
-        <c:axId val="69570944"/>
+        <c:axId val="116359168"/>
+        <c:axId val="116357376"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="69554944"/>
+        <c:axId val="116341376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69556864"/>
+        <c:crossAx val="116355840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69556864"/>
+        <c:axId val="116355840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,12 +1106,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69554944"/>
+        <c:crossAx val="116341376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69570944"/>
+        <c:axId val="116357376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.34"/>
@@ -1147,33 +1120,32 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69572480"/>
+        <c:crossAx val="116359168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69572480"/>
+        <c:axId val="116359168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="69570944"/>
+        <c:crossAx val="116357376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1190,10 +1162,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2319417731701089E-2"/>
-          <c:y val="8.2130188841958218E-2"/>
-          <c:w val="0.79403326257843299"/>
-          <c:h val="0.65644226817573448"/>
+          <c:x val="9.2319417731701076E-2"/>
+          <c:y val="8.213018884195819E-2"/>
+          <c:w val="0.7940332625784331"/>
+          <c:h val="0.65644226817573459"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1220,8 +1192,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.3904077058212598E-3"/>
-                  <c:y val="8.6021476243678466E-3"/>
+                  <c:x val="-5.3904077058212607E-3"/>
+                  <c:y val="8.6021476243678483E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -1230,7 +1202,7 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2532362161705212E-3"/>
+                  <c:x val="-2.2532362161705216E-3"/>
                   <c:y val="8.6022221463766292E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -1514,7 +1486,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="8.6021476243679264E-3"/>
+                  <c:y val="8.6021476243679281E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -1524,7 +1496,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="8.6021476243679264E-3"/>
+                  <c:y val="8.6021476243679281E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -1533,8 +1505,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0928099319633523E-3"/>
-                  <c:y val="-2.5149710209072005E-2"/>
+                  <c:x val="1.0928099319633526E-3"/>
+                  <c:y val="-2.5149710209072008E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -1609,7 +1581,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report_tech_M!$C$89:$C$99</c:f>
+              <c:f>report_tech_M!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1617,34 +1589,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9363137556448602</c:v>
+                  <c:v>27.187103927446099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.6400463051956</c:v>
+                  <c:v>43.412656719508298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.911328960919899</c:v>
+                  <c:v>60.396607444319798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.173932317215403</c:v>
+                  <c:v>86.551849847157101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.429751223778197</c:v>
+                  <c:v>138.91811804019099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108.444980417151</c:v>
+                  <c:v>196.12586450557299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168.11415311365599</c:v>
+                  <c:v>270.83564214092598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>271.42902117712401</c:v>
+                  <c:v>352.83913678925398</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>434.84833573334402</c:v>
+                  <c:v>461.07218936113998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>777.42146498196905</c:v>
+                  <c:v>687.35800435822296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,7 +1706,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report_tech_M!$C$106:$C$116</c:f>
+              <c:f>report_tech_M!$C$23:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1742,41 +1714,41 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.21491165297681</c:v>
+                  <c:v>6.1236850593377996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5403327857140101</c:v>
+                  <c:v>8.2065378444029893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9226329737072101</c:v>
+                  <c:v>10.2142698009644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3377290671086</c:v>
+                  <c:v>12.216238131962299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9134167885290099</c:v>
+                  <c:v>18.992394794164699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.9958469451784</c:v>
+                  <c:v>26.375416369456101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.6754604687768</c:v>
+                  <c:v>36.421343523685898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.593967915324299</c:v>
+                  <c:v>44.763685638172497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.407884257261699</c:v>
+                  <c:v>53.542907442285802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.491496655314499</c:v>
+                  <c:v>58.610731907019499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98832384"/>
-        <c:axId val="98833920"/>
+        <c:axId val="116413568"/>
+        <c:axId val="116415872"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1882,52 +1854,49 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>report_tech_M!$E$213:$E$223</c:f>
+              <c:f>report_tech_M!$E$39:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.7828700028575686E-2</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0156500471035321E-2</c:v>
+                  <c:v>2.412777742385401E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1526287411273281E-2</c:v>
+                  <c:v>3.6911973078595645E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9948742785453479E-2</c:v>
+                  <c:v>5.5317787957186657E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.448360804496638E-2</c:v>
+                  <c:v>7.8215148988548533E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1155668071474662</c:v>
+                  <c:v>9.3484773441398716E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1446161996862512</c:v>
+                  <c:v>0.11099998851667732</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1772773432647067</c:v>
+                  <c:v>0.12543992127716888</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21254517794948066</c:v>
+                  <c:v>0.14632963513611816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25355973061100029</c:v>
+                  <c:v>0.17568778154431289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29164520219413675</c:v>
+                  <c:v>0.21790699135613234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="98836864"/>
-        <c:axId val="98835072"/>
+        <c:axId val="116436352"/>
+        <c:axId val="116434432"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="98832384"/>
+        <c:axId val="116413568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,14 +1966,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98833920"/>
+        <c:crossAx val="116415872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98833920"/>
+        <c:axId val="116415872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -2075,8 +2044,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.3482176641870211E-3"/>
-              <c:y val="8.0685850682521681E-2"/>
+              <c:x val="5.3482176641870219E-3"/>
+              <c:y val="8.0685850682521695E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2108,16 +2077,16 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98832384"/>
+        <c:crossAx val="116413568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98835072"/>
+        <c:axId val="116434432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.30000000000000016"/>
+          <c:max val="0.30000000000000021"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="r"/>
@@ -2217,13 +2186,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98836864"/>
+        <c:crossAx val="116436352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98836864"/>
+        <c:axId val="116436352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2200,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="98835072"/>
+        <c:crossAx val="116434432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2267,10 +2236,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0383200340980657E-2"/>
-          <c:y val="0.85480324342799596"/>
+          <c:x val="9.0383200340980643E-2"/>
+          <c:y val="0.85480324342799607"/>
           <c:w val="0.78810457065469575"/>
-          <c:h val="0.10505058882488119"/>
+          <c:h val="0.10505058882488118"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2296,7 +2265,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2690,7 +2659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9774,8 +9743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9787,10 +9756,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210:E225"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9800,16 +9769,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
         <v>57</v>
@@ -9817,688 +9786,696 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
       <c r="C2">
-        <v>61.3839657930965</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E18" si="0">B2/100</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3">
-        <v>58.964096441078503</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4">
-        <v>56.564814395455002</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>35</v>
       </c>
       <c r="C5">
-        <v>54.3276316983426</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>40</v>
       </c>
       <c r="C6">
-        <v>52.287505015664202</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>45</v>
       </c>
       <c r="C7">
-        <v>50.354177386489397</v>
+        <v>27.187103927446099</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
       <c r="C8">
-        <v>48.548361365527299</v>
+        <v>43.412656719508298</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>55</v>
       </c>
       <c r="C9">
-        <v>46.355790324675802</v>
+        <v>60.396607444319798</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>60</v>
       </c>
       <c r="C10">
-        <v>44.108233563085903</v>
+        <v>86.551849847157101</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>65</v>
       </c>
       <c r="C11">
-        <v>41.897693749812298</v>
+        <v>138.91811804019099</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>70</v>
       </c>
       <c r="C12">
-        <v>39.032677628595401</v>
+        <v>196.12586450557299</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>75</v>
       </c>
       <c r="C13">
-        <v>35.880828569995998</v>
+        <v>270.83564214092598</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>80</v>
       </c>
       <c r="C14">
-        <v>31.941344223492901</v>
+        <v>352.83913678925398</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>85</v>
       </c>
       <c r="C15">
-        <v>27.683498756416402</v>
+        <v>461.07218936113998</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>90</v>
       </c>
       <c r="C16">
-        <v>19.857159881083</v>
+        <v>687.35800435822296</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>95</v>
       </c>
       <c r="C17">
-        <v>9.8651129018017691</v>
+        <v>1248.26764548131</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>4230.7367070529699</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
         <v>20</v>
       </c>
-      <c r="C18">
-        <v>16.926046120827898</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
         <v>25</v>
       </c>
-      <c r="C19">
-        <v>18.5125330811567</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
         <v>30</v>
       </c>
-      <c r="C20">
-        <v>19.8920995377512</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
         <v>35</v>
       </c>
-      <c r="C21">
-        <v>21.001579803932799</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
         <v>40</v>
       </c>
-      <c r="C22">
-        <v>22.072016854090801</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
         <v>45</v>
       </c>
-      <c r="C23">
-        <v>21.9648845761008</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24">
+      <c r="C24">
+        <v>6.1236850593377996</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
         <v>50</v>
       </c>
-      <c r="C24">
-        <v>20.682675884923199</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25">
+      <c r="C25">
+        <v>8.2065378444029893</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
         <v>55</v>
       </c>
-      <c r="C25">
-        <v>21.090953831414499</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26">
+      <c r="C26">
+        <v>10.2142698009644</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
         <v>60</v>
       </c>
-      <c r="C26">
-        <v>21.4552242380894</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27">
+      <c r="C27">
+        <v>12.216238131962299</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
         <v>65</v>
       </c>
-      <c r="C27">
-        <v>21.669399514217499</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28">
+      <c r="C28">
+        <v>18.992394794164699</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29">
         <v>70</v>
       </c>
-      <c r="C28">
-        <v>21.634676265663899</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29">
+      <c r="C29">
+        <v>26.375416369456101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
         <v>75</v>
       </c>
-      <c r="C29">
-        <v>21.4298288809062</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30">
+      <c r="C30">
+        <v>36.421343523685898</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31">
         <v>80</v>
       </c>
-      <c r="C30">
-        <v>20.631657421511498</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31">
+      <c r="C31">
+        <v>44.763685638172497</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32">
         <v>85</v>
       </c>
-      <c r="C31">
-        <v>19.002004249501098</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32">
+      <c r="C32">
+        <v>53.542907442285802</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
         <v>90</v>
       </c>
-      <c r="C32">
-        <v>20.810368295691202</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33">
+      <c r="C33">
+        <v>58.610731907019499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
         <v>95</v>
       </c>
-      <c r="C33">
-        <v>20.873839325383798</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
       <c r="C34">
-        <v>1318.84346743477</v>
+        <v>62.989716622882497</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>67.311512760667497</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
         <v>25</v>
       </c>
-      <c r="C35">
-        <v>50755.296710455899</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
         <v>30</v>
       </c>
-      <c r="C36">
-        <v>118733.61054477</v>
-      </c>
-      <c r="D36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
         <v>35</v>
       </c>
-      <c r="C37">
-        <v>263372.70216558501</v>
-      </c>
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>40</v>
       </c>
-      <c r="C38">
-        <v>1153552.9609294401</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
         <v>45</v>
       </c>
-      <c r="C39">
-        <v>2768081.75463332</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40">
+      <c r="E40">
+        <v>2.412777742385401E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
         <v>50</v>
       </c>
-      <c r="C40">
-        <v>4219336.9532923503</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41">
+      <c r="E41">
+        <v>3.6911973078595645E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
         <v>55</v>
       </c>
-      <c r="C41">
-        <v>6232780.7889778297</v>
-      </c>
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42">
+      <c r="E42">
+        <v>5.5317787957186657E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
         <v>60</v>
       </c>
-      <c r="C42">
-        <v>9273981.4742037095</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43">
+      <c r="E43">
+        <v>7.8215148988548533E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
         <v>65</v>
       </c>
-      <c r="C43">
-        <v>12941215.8411936</v>
-      </c>
-      <c r="D43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44">
+      <c r="E44">
+        <v>9.3484773441398716E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45">
         <v>70</v>
       </c>
-      <c r="C44">
-        <v>16156063.0578501</v>
-      </c>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45">
+      <c r="E45">
+        <v>0.11099998851667732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46">
         <v>75</v>
       </c>
-      <c r="C45">
-        <v>21326089.231694698</v>
-      </c>
-      <c r="D45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46">
+      <c r="E46">
+        <v>0.12543992127716888</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47">
         <v>80</v>
       </c>
-      <c r="C46">
-        <v>28601353.494697001</v>
-      </c>
-      <c r="D46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47">
+      <c r="E47">
+        <v>0.14632963513611816</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48">
         <v>85</v>
       </c>
-      <c r="C47">
-        <v>38934550.776853301</v>
-      </c>
-      <c r="D47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48">
-        <v>90</v>
-      </c>
-      <c r="C48">
-        <v>51058842.2624152</v>
-      </c>
-      <c r="D48" t="s">
-        <v>28</v>
+      <c r="E48">
+        <v>0.17568778154431289</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49">
-        <v>95</v>
-      </c>
-      <c r="C49">
-        <v>67492211.284687907</v>
-      </c>
-      <c r="D49" t="s">
-        <v>28</v>
+        <v>90</v>
+      </c>
+      <c r="E49">
+        <v>0.21790699135613234</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B50">
-        <v>100</v>
-      </c>
-      <c r="C50">
-        <v>302136636.08715397</v>
-      </c>
-      <c r="D50" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -10506,2585 +10483,7 @@
         <v>38</v>
       </c>
       <c r="B51">
-        <v>20</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52">
-        <v>25</v>
-      </c>
-      <c r="C52">
-        <v>5.6443639900000001E-4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ref="E52:E67" si="0">C52*100</f>
-        <v>5.6443639900000002E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53">
-        <v>30</v>
-      </c>
-      <c r="C53">
-        <v>1.2756440975253999E-3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>0.12756440975253999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54">
-        <v>35</v>
-      </c>
-      <c r="C54">
-        <v>2.79654210899022E-3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0.27965421089902198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55">
-        <v>40</v>
-      </c>
-      <c r="C55">
-        <v>1.17589722112947E-2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>1.17589722112947</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56">
-        <v>45</v>
-      </c>
-      <c r="C56">
-        <v>2.6208794195499499E-2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>2.6208794195499499</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57">
-        <v>50</v>
-      </c>
-      <c r="C57">
-        <v>3.6542104432161999E-2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>3.6542104432162001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58">
-        <v>55</v>
-      </c>
-      <c r="C58">
-        <v>5.0563528410938502E-2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>5.0563528410938501</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59">
-        <v>60</v>
-      </c>
-      <c r="C59">
-        <v>7.0829962479840206E-2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>7.0829962479840205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60">
-        <v>65</v>
-      </c>
-      <c r="C60">
-        <v>9.3545359714551496E-2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>9.3545359714551495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61">
-        <v>70</v>
-      </c>
-      <c r="C61">
-        <v>0.10904551512259</v>
-      </c>
-      <c r="D61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>10.904551512259001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62">
-        <v>75</v>
-      </c>
-      <c r="C62">
-        <v>0.13303703094105099</v>
-      </c>
-      <c r="D62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>13.303703094105099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63">
-        <v>80</v>
-      </c>
-      <c r="C63">
-        <v>0.16212429865021399</v>
-      </c>
-      <c r="D63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>16.212429865021399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64">
-        <v>85</v>
-      </c>
-      <c r="C64">
-        <v>0.195534932931027</v>
-      </c>
-      <c r="D64" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>19.553493293102701</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65">
-        <v>90</v>
-      </c>
-      <c r="C65">
-        <v>0.22335963428928199</v>
-      </c>
-      <c r="D65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>22.335963428928199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66">
-        <v>95</v>
-      </c>
-      <c r="C66">
-        <v>0.25657647755346902</v>
-      </c>
-      <c r="D66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>25.6576477553469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67">
         <v>100</v>
-      </c>
-      <c r="C67">
-        <v>0.59022799047311103</v>
-      </c>
-      <c r="D67" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="0"/>
-        <v>59.022799047311103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68">
-        <v>20</v>
-      </c>
-      <c r="C68">
-        <v>75.866551990794704</v>
-      </c>
-      <c r="D68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69">
-        <v>25</v>
-      </c>
-      <c r="C69">
-        <v>82.2807517404202</v>
-      </c>
-      <c r="D69" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70">
-        <v>30</v>
-      </c>
-      <c r="C70">
-        <v>85.167920496918896</v>
-      </c>
-      <c r="D70" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71">
-        <v>35</v>
-      </c>
-      <c r="C71">
-        <v>86.174999465670595</v>
-      </c>
-      <c r="D71" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72">
-        <v>40</v>
-      </c>
-      <c r="C72">
-        <v>89.763559771025896</v>
-      </c>
-      <c r="D72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73">
-        <v>45</v>
-      </c>
-      <c r="C73">
-        <v>96.641522921845194</v>
-      </c>
-      <c r="D73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74">
-        <v>50</v>
-      </c>
-      <c r="C74">
-        <v>105.65317380546701</v>
-      </c>
-      <c r="D74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75">
-        <v>55</v>
-      </c>
-      <c r="C75">
-        <v>112.791500309209</v>
-      </c>
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76">
-        <v>60</v>
-      </c>
-      <c r="C76">
-        <v>119.806699789173</v>
-      </c>
-      <c r="D76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77">
-        <v>65</v>
-      </c>
-      <c r="C77">
-        <v>126.585722369295</v>
-      </c>
-      <c r="D77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78">
-        <v>70</v>
-      </c>
-      <c r="C78">
-        <v>135.56876011561101</v>
-      </c>
-      <c r="D78" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79">
-        <v>75</v>
-      </c>
-      <c r="C79">
-        <v>146.679888456756</v>
-      </c>
-      <c r="D79" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80">
-        <v>80</v>
-      </c>
-      <c r="C80">
-        <v>161.42484133900001</v>
-      </c>
-      <c r="D80" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81">
-        <v>85</v>
-      </c>
-      <c r="C81">
-        <v>182.19762201709699</v>
-      </c>
-      <c r="D81" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82">
-        <v>90</v>
-      </c>
-      <c r="C82">
-        <v>209.16940749669899</v>
-      </c>
-      <c r="D82" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83">
-        <v>95</v>
-      </c>
-      <c r="C83">
-        <v>240.69591063023199</v>
-      </c>
-      <c r="D83" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84">
-        <v>100</v>
-      </c>
-      <c r="C84">
-        <v>468.39848449612202</v>
-      </c>
-      <c r="D84" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>51</v>
-      </c>
-      <c r="B85">
-        <v>20</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85">
-        <f t="shared" ref="E85:E101" si="1">B85/100</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86">
-        <v>25</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>51</v>
-      </c>
-      <c r="B87">
-        <v>30</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>51</v>
-      </c>
-      <c r="B88">
-        <v>35</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89">
-        <v>40</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90">
-        <v>45</v>
-      </c>
-      <c r="C90">
-        <v>3.9363137556448602</v>
-      </c>
-      <c r="D90" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91">
-        <v>50</v>
-      </c>
-      <c r="C91">
-        <v>15.6400463051956</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>51</v>
-      </c>
-      <c r="B92">
-        <v>55</v>
-      </c>
-      <c r="C92">
-        <v>27.911328960919899</v>
-      </c>
-      <c r="D92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="1"/>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>51</v>
-      </c>
-      <c r="B93">
-        <v>60</v>
-      </c>
-      <c r="C93">
-        <v>45.173932317215403</v>
-      </c>
-      <c r="D93" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94">
-        <v>65</v>
-      </c>
-      <c r="C94">
-        <v>66.429751223778197</v>
-      </c>
-      <c r="D94" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="1"/>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95">
-        <v>70</v>
-      </c>
-      <c r="C95">
-        <v>108.444980417151</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96">
-        <v>75</v>
-      </c>
-      <c r="C96">
-        <v>168.11415311365599</v>
-      </c>
-      <c r="D96" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>51</v>
-      </c>
-      <c r="B97">
-        <v>80</v>
-      </c>
-      <c r="C97">
-        <v>271.42902117712401</v>
-      </c>
-      <c r="D97" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98">
-        <v>85</v>
-      </c>
-      <c r="C98">
-        <v>434.84833573334402</v>
-      </c>
-      <c r="D98" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>51</v>
-      </c>
-      <c r="B99">
-        <v>90</v>
-      </c>
-      <c r="C99">
-        <v>777.42146498196905</v>
-      </c>
-      <c r="D99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>51</v>
-      </c>
-      <c r="B100">
-        <v>95</v>
-      </c>
-      <c r="C100">
-        <v>1630.0348994613601</v>
-      </c>
-      <c r="D100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>51</v>
-      </c>
-      <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101">
-        <v>3253.1255016786499</v>
-      </c>
-      <c r="D101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>52</v>
-      </c>
-      <c r="B102">
-        <v>20</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>52</v>
-      </c>
-      <c r="B103">
-        <v>25</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>52</v>
-      </c>
-      <c r="B104">
-        <v>30</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>52</v>
-      </c>
-      <c r="B105">
-        <v>35</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>52</v>
-      </c>
-      <c r="B106">
-        <v>40</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>52</v>
-      </c>
-      <c r="B107">
-        <v>45</v>
-      </c>
-      <c r="C107">
-        <v>1.21491165297681</v>
-      </c>
-      <c r="D107" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>52</v>
-      </c>
-      <c r="B108">
-        <v>50</v>
-      </c>
-      <c r="C108">
-        <v>3.5403327857140101</v>
-      </c>
-      <c r="D108" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B109">
-        <v>55</v>
-      </c>
-      <c r="C109">
-        <v>4.9226329737072101</v>
-      </c>
-      <c r="D109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>52</v>
-      </c>
-      <c r="B110">
-        <v>60</v>
-      </c>
-      <c r="C110">
-        <v>6.3377290671086</v>
-      </c>
-      <c r="D110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>52</v>
-      </c>
-      <c r="B111">
-        <v>65</v>
-      </c>
-      <c r="C111">
-        <v>7.9134167885290099</v>
-      </c>
-      <c r="D111" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>52</v>
-      </c>
-      <c r="B112">
-        <v>70</v>
-      </c>
-      <c r="C112">
-        <v>10.9958469451784</v>
-      </c>
-      <c r="D112" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>52</v>
-      </c>
-      <c r="B113">
-        <v>75</v>
-      </c>
-      <c r="C113">
-        <v>14.6754604687768</v>
-      </c>
-      <c r="D113" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>52</v>
-      </c>
-      <c r="B114">
-        <v>80</v>
-      </c>
-      <c r="C114">
-        <v>19.593967915324299</v>
-      </c>
-      <c r="D114" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>52</v>
-      </c>
-      <c r="B115">
-        <v>85</v>
-      </c>
-      <c r="C115">
-        <v>26.407884257261699</v>
-      </c>
-      <c r="D115" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116">
-        <v>90</v>
-      </c>
-      <c r="C116">
-        <v>35.491496655314499</v>
-      </c>
-      <c r="D116" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>52</v>
-      </c>
-      <c r="B117">
-        <v>95</v>
-      </c>
-      <c r="C117">
-        <v>47.563064281238702</v>
-      </c>
-      <c r="D117" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118">
-        <v>100</v>
-      </c>
-      <c r="C118">
-        <v>90.0272766659117</v>
-      </c>
-      <c r="D118" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>59</v>
-      </c>
-      <c r="B119">
-        <v>45</v>
-      </c>
-      <c r="C119">
-        <v>3.24</v>
-      </c>
-      <c r="D119" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>59</v>
-      </c>
-      <c r="B120">
-        <v>50</v>
-      </c>
-      <c r="C120">
-        <v>4.4176768828926098</v>
-      </c>
-      <c r="D120" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>59</v>
-      </c>
-      <c r="B121">
-        <v>55</v>
-      </c>
-      <c r="C121">
-        <v>5.67</v>
-      </c>
-      <c r="D121" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B122">
-        <v>60</v>
-      </c>
-      <c r="C122">
-        <v>7.12777902603285</v>
-      </c>
-      <c r="D122" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>59</v>
-      </c>
-      <c r="B123">
-        <v>65</v>
-      </c>
-      <c r="C123">
-        <v>8.3945725340882191</v>
-      </c>
-      <c r="D123" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>59</v>
-      </c>
-      <c r="B124">
-        <v>70</v>
-      </c>
-      <c r="C124">
-        <v>9.8623581210088496</v>
-      </c>
-      <c r="D124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>59</v>
-      </c>
-      <c r="B125">
-        <v>75</v>
-      </c>
-      <c r="C125">
-        <v>11.4554601861613</v>
-      </c>
-      <c r="D125" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>59</v>
-      </c>
-      <c r="B126">
-        <v>80</v>
-      </c>
-      <c r="C126">
-        <v>13.8526827414493</v>
-      </c>
-      <c r="D126" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>59</v>
-      </c>
-      <c r="B127">
-        <v>85</v>
-      </c>
-      <c r="C127">
-        <v>16.4666101796386</v>
-      </c>
-      <c r="D127" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>59</v>
-      </c>
-      <c r="B128">
-        <v>90</v>
-      </c>
-      <c r="C128">
-        <v>21.904442986220399</v>
-      </c>
-      <c r="D128" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>59</v>
-      </c>
-      <c r="B129">
-        <v>95</v>
-      </c>
-      <c r="C129">
-        <v>34.271023620829297</v>
-      </c>
-      <c r="D129" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>59</v>
-      </c>
-      <c r="B130">
-        <v>100</v>
-      </c>
-      <c r="C130">
-        <v>36.134887360315197</v>
-      </c>
-      <c r="D130" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>58</v>
-      </c>
-      <c r="B131">
-        <v>45</v>
-      </c>
-      <c r="C131">
-        <v>260.067192833457</v>
-      </c>
-      <c r="D131" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>58</v>
-      </c>
-      <c r="B132">
-        <v>50</v>
-      </c>
-      <c r="C132">
-        <v>414.86346451505898</v>
-      </c>
-      <c r="D132" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>58</v>
-      </c>
-      <c r="B133">
-        <v>55</v>
-      </c>
-      <c r="C133">
-        <v>564.33430672532097</v>
-      </c>
-      <c r="D133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>58</v>
-      </c>
-      <c r="B134">
-        <v>60</v>
-      </c>
-      <c r="C134">
-        <v>698.82136136348902</v>
-      </c>
-      <c r="D134" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>58</v>
-      </c>
-      <c r="B135">
-        <v>65</v>
-      </c>
-      <c r="C135">
-        <v>797.19072626294405</v>
-      </c>
-      <c r="D135" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>58</v>
-      </c>
-      <c r="B136">
-        <v>70</v>
-      </c>
-      <c r="C136">
-        <v>862.52141349691203</v>
-      </c>
-      <c r="D136" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>58</v>
-      </c>
-      <c r="B137">
-        <v>75</v>
-      </c>
-      <c r="C137">
-        <v>917.76739823709795</v>
-      </c>
-      <c r="D137" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>58</v>
-      </c>
-      <c r="B138">
-        <v>80</v>
-      </c>
-      <c r="C138">
-        <v>947.44686747508001</v>
-      </c>
-      <c r="D138" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>58</v>
-      </c>
-      <c r="B139">
-        <v>85</v>
-      </c>
-      <c r="C139">
-        <v>947.86006489380895</v>
-      </c>
-      <c r="D139" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>58</v>
-      </c>
-      <c r="B140">
-        <v>90</v>
-      </c>
-      <c r="C140">
-        <v>961.93234183662503</v>
-      </c>
-      <c r="D140" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>58</v>
-      </c>
-      <c r="B141">
-        <v>95</v>
-      </c>
-      <c r="C141">
-        <v>950.49071687337005</v>
-      </c>
-      <c r="D141" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>58</v>
-      </c>
-      <c r="B142">
-        <v>100</v>
-      </c>
-      <c r="C142">
-        <v>435.25938645606197</v>
-      </c>
-      <c r="D142" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>37</v>
-      </c>
-      <c r="B143">
-        <v>20</v>
-      </c>
-      <c r="C143">
-        <v>7300.2568802857704</v>
-      </c>
-      <c r="D143" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>37</v>
-      </c>
-      <c r="B144">
-        <v>25</v>
-      </c>
-      <c r="C144">
-        <v>206641.26849005499</v>
-      </c>
-      <c r="D144" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>37</v>
-      </c>
-      <c r="B145">
-        <v>30</v>
-      </c>
-      <c r="C145">
-        <v>657385.92820715997</v>
-      </c>
-      <c r="D145" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146">
-        <v>35</v>
-      </c>
-      <c r="C146">
-        <v>1367091.64104088</v>
-      </c>
-      <c r="D146" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147">
-        <v>40</v>
-      </c>
-      <c r="C147">
-        <v>2507150.1374599799</v>
-      </c>
-      <c r="D147" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148">
-        <v>45</v>
-      </c>
-      <c r="C148">
-        <v>4302651.1509953104</v>
-      </c>
-      <c r="D148" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>37</v>
-      </c>
-      <c r="B149">
-        <v>50</v>
-      </c>
-      <c r="C149">
-        <v>6807865.5205480298</v>
-      </c>
-      <c r="D149" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
-        <v>37</v>
-      </c>
-      <c r="B150">
-        <v>55</v>
-      </c>
-      <c r="C150">
-        <v>11744908.701927301</v>
-      </c>
-      <c r="D150" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
-        <v>37</v>
-      </c>
-      <c r="B151">
-        <v>60</v>
-      </c>
-      <c r="C151">
-        <v>19320028.265084099</v>
-      </c>
-      <c r="D151" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>37</v>
-      </c>
-      <c r="B152">
-        <v>65</v>
-      </c>
-      <c r="C152">
-        <v>31250388.737045199</v>
-      </c>
-      <c r="D152" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" t="s">
-        <v>37</v>
-      </c>
-      <c r="B153">
-        <v>70</v>
-      </c>
-      <c r="C153">
-        <v>46180102.523408502</v>
-      </c>
-      <c r="D153" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>37</v>
-      </c>
-      <c r="B154">
-        <v>75</v>
-      </c>
-      <c r="C154">
-        <v>64986897.336267099</v>
-      </c>
-      <c r="D154" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>37</v>
-      </c>
-      <c r="B155">
-        <v>80</v>
-      </c>
-      <c r="C155">
-        <v>88613678.953317806</v>
-      </c>
-      <c r="D155" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>37</v>
-      </c>
-      <c r="B156">
-        <v>85</v>
-      </c>
-      <c r="C156">
-        <v>120806459.57264</v>
-      </c>
-      <c r="D156" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>37</v>
-      </c>
-      <c r="B157">
-        <v>90</v>
-      </c>
-      <c r="C157">
-        <v>159183365.84132299</v>
-      </c>
-      <c r="D157" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>37</v>
-      </c>
-      <c r="B158">
-        <v>95</v>
-      </c>
-      <c r="C158">
-        <v>206582694.01975501</v>
-      </c>
-      <c r="D158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>37</v>
-      </c>
-      <c r="B159">
-        <v>100</v>
-      </c>
-      <c r="C159">
-        <v>487270609.30346203</v>
-      </c>
-      <c r="D159" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>38</v>
-      </c>
-      <c r="B160">
-        <v>20</v>
-      </c>
-      <c r="C160">
-        <v>4.0716970292654599E-4</v>
-      </c>
-      <c r="D160" t="s">
-        <v>29</v>
-      </c>
-      <c r="E160">
-        <f t="shared" ref="E160:E176" si="2">C160*100</f>
-        <v>4.07169702926546E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>38</v>
-      </c>
-      <c r="B161">
-        <v>25</v>
-      </c>
-      <c r="C161">
-        <v>5.6806433300874599E-3</v>
-      </c>
-      <c r="D161" t="s">
-        <v>29</v>
-      </c>
-      <c r="E161">
-        <f t="shared" si="2"/>
-        <v>0.56806433300874604</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>38</v>
-      </c>
-      <c r="B162">
-        <v>30</v>
-      </c>
-      <c r="C162">
-        <v>1.11519585083988E-2</v>
-      </c>
-      <c r="D162" t="s">
-        <v>29</v>
-      </c>
-      <c r="E162">
-        <f t="shared" si="2"/>
-        <v>1.11519585083988</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>38</v>
-      </c>
-      <c r="B163">
-        <v>35</v>
-      </c>
-      <c r="C163">
-        <v>1.62923607396285E-2</v>
-      </c>
-      <c r="D163" t="s">
-        <v>29</v>
-      </c>
-      <c r="E163">
-        <f t="shared" si="2"/>
-        <v>1.62923607396285</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>38</v>
-      </c>
-      <c r="B164">
-        <v>40</v>
-      </c>
-      <c r="C164">
-        <v>2.3381791585797299E-2</v>
-      </c>
-      <c r="D164" t="s">
-        <v>29</v>
-      </c>
-      <c r="E164">
-        <f t="shared" si="2"/>
-        <v>2.33817915857973</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>38</v>
-      </c>
-      <c r="B165">
-        <v>45</v>
-      </c>
-      <c r="C165">
-        <v>3.3392343679642E-2</v>
-      </c>
-      <c r="D165" t="s">
-        <v>29</v>
-      </c>
-      <c r="E165">
-        <f t="shared" si="2"/>
-        <v>3.3392343679641998</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" t="s">
-        <v>38</v>
-      </c>
-      <c r="B166">
-        <v>50</v>
-      </c>
-      <c r="C166">
-        <v>4.5360840523508403E-2</v>
-      </c>
-      <c r="D166" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166">
-        <f t="shared" si="2"/>
-        <v>4.5360840523508399</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>38</v>
-      </c>
-      <c r="B167">
-        <v>55</v>
-      </c>
-      <c r="C167">
-        <v>6.6498929613233004E-2</v>
-      </c>
-      <c r="D167" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167">
-        <f t="shared" si="2"/>
-        <v>6.6498929613233004</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>38</v>
-      </c>
-      <c r="B168">
-        <v>60</v>
-      </c>
-      <c r="C168">
-        <v>9.3098126833452893E-2</v>
-      </c>
-      <c r="D168" t="s">
-        <v>29</v>
-      </c>
-      <c r="E168">
-        <f t="shared" si="2"/>
-        <v>9.3098126833452888</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" t="s">
-        <v>38</v>
-      </c>
-      <c r="B169">
-        <v>65</v>
-      </c>
-      <c r="C169">
-        <v>0.12804990990477599</v>
-      </c>
-      <c r="D169" t="s">
-        <v>29</v>
-      </c>
-      <c r="E169">
-        <f t="shared" si="2"/>
-        <v>12.804990990477599</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" t="s">
-        <v>38</v>
-      </c>
-      <c r="B170">
-        <v>70</v>
-      </c>
-      <c r="C170">
-        <v>0.16324597145404601</v>
-      </c>
-      <c r="D170" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="2"/>
-        <v>16.324597145404603</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" t="s">
-        <v>38</v>
-      </c>
-      <c r="B171">
-        <v>75</v>
-      </c>
-      <c r="C171">
-        <v>0.19899276936510399</v>
-      </c>
-      <c r="D171" t="s">
-        <v>29</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="2"/>
-        <v>19.8992769365104</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" t="s">
-        <v>38</v>
-      </c>
-      <c r="B172">
-        <v>80</v>
-      </c>
-      <c r="C172">
-        <v>0.236261120056626</v>
-      </c>
-      <c r="D172" t="s">
-        <v>29</v>
-      </c>
-      <c r="E172">
-        <f t="shared" si="2"/>
-        <v>23.626112005662598</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" t="s">
-        <v>38</v>
-      </c>
-      <c r="B173">
-        <v>85</v>
-      </c>
-      <c r="C173">
-        <v>0.28037441365411397</v>
-      </c>
-      <c r="D173" t="s">
-        <v>29</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="2"/>
-        <v>28.037441365411397</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" t="s">
-        <v>38</v>
-      </c>
-      <c r="B174">
-        <v>90</v>
-      </c>
-      <c r="C174">
-        <v>0.32335367430032103</v>
-      </c>
-      <c r="D174" t="s">
-        <v>29</v>
-      </c>
-      <c r="E174">
-        <f t="shared" si="2"/>
-        <v>32.3353674300321</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" t="s">
-        <v>38</v>
-      </c>
-      <c r="B175">
-        <v>95</v>
-      </c>
-      <c r="C175">
-        <v>0.36542656037556198</v>
-      </c>
-      <c r="D175" t="s">
-        <v>29</v>
-      </c>
-      <c r="E175">
-        <f t="shared" si="2"/>
-        <v>36.542656037556199</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" t="s">
-        <v>38</v>
-      </c>
-      <c r="B176">
-        <v>100</v>
-      </c>
-      <c r="C176">
-        <v>0.57530785049750299</v>
-      </c>
-      <c r="D176" t="s">
-        <v>29</v>
-      </c>
-      <c r="E176">
-        <f t="shared" si="2"/>
-        <v>57.5307850497503</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>36</v>
-      </c>
-      <c r="B177">
-        <v>20</v>
-      </c>
-      <c r="C177">
-        <v>10.485418401216601</v>
-      </c>
-      <c r="D177" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>36</v>
-      </c>
-      <c r="B178">
-        <v>25</v>
-      </c>
-      <c r="C178">
-        <v>21.273679630348301</v>
-      </c>
-      <c r="D178" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>36</v>
-      </c>
-      <c r="B179">
-        <v>30</v>
-      </c>
-      <c r="C179">
-        <v>34.474052308688201</v>
-      </c>
-      <c r="D179" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>36</v>
-      </c>
-      <c r="B180">
-        <v>35</v>
-      </c>
-      <c r="C180">
-        <v>49.072331003956798</v>
-      </c>
-      <c r="D180" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>36</v>
-      </c>
-      <c r="B181">
-        <v>40</v>
-      </c>
-      <c r="C181">
-        <v>62.708387668816897</v>
-      </c>
-      <c r="D181" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>36</v>
-      </c>
-      <c r="B182">
-        <v>45</v>
-      </c>
-      <c r="C182">
-        <v>75.355041276278996</v>
-      </c>
-      <c r="D182" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>36</v>
-      </c>
-      <c r="B183">
-        <v>50</v>
-      </c>
-      <c r="C183">
-        <v>87.771385262334604</v>
-      </c>
-      <c r="D183" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>36</v>
-      </c>
-      <c r="B184">
-        <v>55</v>
-      </c>
-      <c r="C184">
-        <v>103.289950208557</v>
-      </c>
-      <c r="D184" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
-        <v>36</v>
-      </c>
-      <c r="B185">
-        <v>60</v>
-      </c>
-      <c r="C185">
-        <v>121.364002922949</v>
-      </c>
-      <c r="D185" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>36</v>
-      </c>
-      <c r="B186">
-        <v>65</v>
-      </c>
-      <c r="C186">
-        <v>142.72472818322299</v>
-      </c>
-      <c r="D186" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>36</v>
-      </c>
-      <c r="B187">
-        <v>70</v>
-      </c>
-      <c r="C187">
-        <v>165.43808632056701</v>
-      </c>
-      <c r="D187" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>36</v>
-      </c>
-      <c r="B188">
-        <v>75</v>
-      </c>
-      <c r="C188">
-        <v>190.99042036814799</v>
-      </c>
-      <c r="D188" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>36</v>
-      </c>
-      <c r="B189">
-        <v>80</v>
-      </c>
-      <c r="C189">
-        <v>219.34694327276199</v>
-      </c>
-      <c r="D189" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>36</v>
-      </c>
-      <c r="B190">
-        <v>85</v>
-      </c>
-      <c r="C190">
-        <v>251.98509691541199</v>
-      </c>
-      <c r="D190" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>36</v>
-      </c>
-      <c r="B191">
-        <v>90</v>
-      </c>
-      <c r="C191">
-        <v>287.90085911911899</v>
-      </c>
-      <c r="D191" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
-        <v>36</v>
-      </c>
-      <c r="B192">
-        <v>95</v>
-      </c>
-      <c r="C192">
-        <v>330.61069941039699</v>
-      </c>
-      <c r="D192" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
-        <v>36</v>
-      </c>
-      <c r="B193">
-        <v>100</v>
-      </c>
-      <c r="C193">
-        <v>495.32813191642401</v>
-      </c>
-      <c r="D193" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E194">
-        <f>C35/C52+C144/C161</f>
-        <v>126298467.9260865</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E195">
-        <f t="shared" ref="E195:E209" si="3">C36/C53+C145/C162</f>
-        <v>152025405.03875268</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E196">
-        <f t="shared" si="3"/>
-        <v>178087964.09320658</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E197">
-        <f t="shared" si="3"/>
-        <v>205326417.09839058</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E198">
-        <f t="shared" si="3"/>
-        <v>234467952.02314407</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199">
-        <f t="shared" si="3"/>
-        <v>265547516.07404202</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E200">
-        <f t="shared" si="3"/>
-        <v>299884345.45231867</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E201">
-        <f t="shared" si="3"/>
-        <v>338456304.13971728</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E202">
-        <f t="shared" si="3"/>
-        <v>382390114.16010815</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E203">
-        <f t="shared" si="3"/>
-        <v>431045524.05953568</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E204">
-        <f t="shared" si="3"/>
-        <v>486881092.52111876</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E205">
-        <f t="shared" si="3"/>
-        <v>551482906.26417017</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E206">
-        <f t="shared" si="3"/>
-        <v>629993611.22748876</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E207">
-        <f t="shared" si="3"/>
-        <v>720883479.38529849</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E208">
-        <f t="shared" si="3"/>
-        <v>828368417.50799131</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E209">
-        <f t="shared" si="3"/>
-        <v>1358871866.8895099</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>38</v>
-      </c>
-      <c r="B210">
-        <v>25</v>
-      </c>
-      <c r="E210">
-        <f>SUM(C144+C35)/E194</f>
-        <v>2.0380022768854708E-3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>38</v>
-      </c>
-      <c r="B211">
-        <v>30</v>
-      </c>
-      <c r="E211">
-        <f t="shared" ref="E211:E225" si="4">SUM(C145+C36)/E195</f>
-        <v>5.1051963226415344E-3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>38</v>
-      </c>
-      <c r="B212">
-        <v>35</v>
-      </c>
-      <c r="E212">
-        <f t="shared" si="4"/>
-        <v>9.155387628290941E-3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>38</v>
-      </c>
-      <c r="B213">
-        <v>40</v>
-      </c>
-      <c r="E213">
-        <f t="shared" si="4"/>
-        <v>1.7828700028575686E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>38</v>
-      </c>
-      <c r="B214">
-        <v>45</v>
-      </c>
-      <c r="E214">
-        <f t="shared" si="4"/>
-        <v>3.0156500471035321E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>38</v>
-      </c>
-      <c r="B215">
-        <v>50</v>
-      </c>
-      <c r="E215">
-        <f t="shared" si="4"/>
-        <v>4.1526287411273281E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>38</v>
-      </c>
-      <c r="B216">
-        <v>55</v>
-      </c>
-      <c r="E216">
-        <f t="shared" si="4"/>
-        <v>5.9948742785453479E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>38</v>
-      </c>
-      <c r="B217">
-        <v>60</v>
-      </c>
-      <c r="E217">
-        <f t="shared" si="4"/>
-        <v>8.448360804496638E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>38</v>
-      </c>
-      <c r="B218">
-        <v>65</v>
-      </c>
-      <c r="E218">
-        <f t="shared" si="4"/>
-        <v>0.1155668071474662</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>38</v>
-      </c>
-      <c r="B219">
-        <v>70</v>
-      </c>
-      <c r="E219">
-        <f t="shared" si="4"/>
-        <v>0.1446161996862512</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>38</v>
-      </c>
-      <c r="B220">
-        <v>75</v>
-      </c>
-      <c r="E220">
-        <f t="shared" si="4"/>
-        <v>0.1772773432647067</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>38</v>
-      </c>
-      <c r="B221">
-        <v>80</v>
-      </c>
-      <c r="E221">
-        <f t="shared" si="4"/>
-        <v>0.21254517794948066</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>38</v>
-      </c>
-      <c r="B222">
-        <v>85</v>
-      </c>
-      <c r="E222">
-        <f t="shared" si="4"/>
-        <v>0.25355973061100029</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>38</v>
-      </c>
-      <c r="B223">
-        <v>90</v>
-      </c>
-      <c r="E223">
-        <f t="shared" si="4"/>
-        <v>0.29164520219413675</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>38</v>
-      </c>
-      <c r="B224">
-        <v>95</v>
-      </c>
-      <c r="E224">
-        <f t="shared" si="4"/>
-        <v>0.33086112351911201</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>38</v>
-      </c>
-      <c r="B225">
-        <v>100</v>
-      </c>
-      <c r="E225">
-        <f t="shared" si="4"/>
-        <v>0.5809283896631019</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/Results_model/DOLORES_max_cap_6regions/Figure11_compare.xlsx
+++ b/analysis/Results_model/DOLORES_max_cap_6regions/Figure11_compare.xlsx
@@ -4,18 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="report" sheetId="1" r:id="rId1"/>
-    <sheet name="report_cost" sheetId="2" r:id="rId2"/>
-    <sheet name="report_tech" sheetId="4" r:id="rId3"/>
-    <sheet name="report_tech_r_D" sheetId="7" r:id="rId4"/>
-    <sheet name="figure" sheetId="9" r:id="rId5"/>
-    <sheet name="report_tech_M" sheetId="10" r:id="rId6"/>
+    <sheet name="report_tech" sheetId="4" r:id="rId1"/>
+    <sheet name="report_tech_r_D" sheetId="7" r:id="rId2"/>
+    <sheet name="figure" sheetId="9" r:id="rId3"/>
+    <sheet name="report_tech_M" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">report_tech_M!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">report_tech_M!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -32,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="62">
-  <si>
-    <t>model status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="42">
   <si>
     <t>20</t>
   </si>
@@ -88,28 +83,10 @@
     <t>100</t>
   </si>
   <si>
-    <t>solve time</t>
-  </si>
-  <si>
-    <t>obj value</t>
-  </si>
-  <si>
-    <t>hours with contemp storing in and out</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
-    <t>cost storage energy in bn euro</t>
-  </si>
-  <si>
-    <t>cost total in bn euro</t>
-  </si>
-  <si>
     <t>storage</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
   <si>
     <t>base</t>
@@ -151,49 +128,10 @@
     <t>renewables curtailed relative</t>
   </si>
   <si>
-    <t>net energy demand</t>
-  </si>
-  <si>
-    <t>renewables available</t>
-  </si>
-  <si>
-    <t>renewables used directly</t>
-  </si>
-  <si>
-    <t>renewables stored</t>
-  </si>
-  <si>
-    <t>renewables lost in storage</t>
-  </si>
-  <si>
-    <t>renewables lost total</t>
-  </si>
-  <si>
-    <t>"efficiency"</t>
-  </si>
-  <si>
-    <t>renshare total</t>
-  </si>
-  <si>
-    <t>cost renewables in bn euro</t>
-  </si>
-  <si>
-    <t>cost storage power in bn euro</t>
-  </si>
-  <si>
-    <t>cost investment conventional in bn euro</t>
-  </si>
-  <si>
-    <t>cost operation conventional in bn euro</t>
-  </si>
-  <si>
     <t>capacities storage GWh</t>
   </si>
   <si>
     <t>capacities storage GW</t>
-  </si>
-  <si>
-    <t>capacities conventional GW</t>
   </si>
   <si>
     <t>summe</t>
@@ -419,34 +357,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10.8901704951429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8565067209099464</c:v>
+                  <c:v>24.540191602974001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.760361198082308</c:v>
+                  <c:v>41.259641847727401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.312416088570785</c:v>
+                  <c:v>62.689996343009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.002626201096831</c:v>
+                  <c:v>80.137064341928706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.152168167381774</c:v>
+                  <c:v>110.959022328347</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>136.57545601288638</c:v>
+                  <c:v>175.33146339263399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>209.65203207720731</c:v>
+                  <c:v>292.746609021089</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>391.5156933635709</c:v>
+                  <c:v>456.05066718910399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>561.06890660792089</c:v>
+                  <c:v>695.47340064812897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,34 +488,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.3611637330687998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7008125327961325</c:v>
+                  <c:v>6.3960211608349802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4196097352863086</c:v>
+                  <c:v>9.4519421399734895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1074343678988559</c:v>
+                  <c:v>12.684861477924001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.199577289157723</c:v>
+                  <c:v>14.3992064179452</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.256004779575044</c:v>
+                  <c:v>16.614140257051101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.890981014137127</c:v>
+                  <c:v>19.903360620734901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.939120142863072</c:v>
+                  <c:v>24.405647808919799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.387947114694033</c:v>
+                  <c:v>34.010083921218502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.865100841662965</c:v>
+                  <c:v>46.103368781818901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,34 +1230,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.8901704951429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8565067209099464</c:v>
+                  <c:v>24.540191602974001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.760361198082308</c:v>
+                  <c:v>41.259641847727401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.312416088570785</c:v>
+                  <c:v>62.689996343009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.002626201096831</c:v>
+                  <c:v>80.137064341928706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.152168167381774</c:v>
+                  <c:v>110.959022328347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>136.57545601288638</c:v>
+                  <c:v>175.33146339263399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209.65203207720731</c:v>
+                  <c:v>292.746609021089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>391.5156933635709</c:v>
+                  <c:v>456.05066718910399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>561.06890660792089</c:v>
+                  <c:v>695.47340064812897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,34 +1355,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.3611637330687998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7008125327961325</c:v>
+                  <c:v>6.3960211608349802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4196097352863086</c:v>
+                  <c:v>9.4519421399734895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1074343678988559</c:v>
+                  <c:v>12.684861477924001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.199577289157723</c:v>
+                  <c:v>14.3992064179452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.256004779575044</c:v>
+                  <c:v>16.614140257051101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.890981014137127</c:v>
+                  <c:v>19.903360620734901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.939120142863072</c:v>
+                  <c:v>24.405647808919799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.387947114694033</c:v>
+                  <c:v>34.010083921218502</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.865100841662965</c:v>
+                  <c:v>46.103368781818901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2667,3252 +2605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C182"/>
-  <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>23.155999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>15.313000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>18.609000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>21.014999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>22.625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>23.984000000000009</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>19.781999999999982</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>26.187999999999988</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>28.203999999999979</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>64.843000000000018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>113.18699999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31">
-        <v>120.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>60.593999999999937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>66.079000000000065</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>22.077999999999975</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35">
-        <v>20.157000000000039</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>24741048093.615009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>25121469671.608917</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>25549413047.331921</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>26104690120.197624</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>26719669156.195465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>27434588117.984245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>28265398288.975014</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>29298035996.875664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>30587968241.579922</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>32186222461.709042</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46">
-        <v>34303342523.127987</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47">
-        <v>36861762834.638046</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48">
-        <v>39939815752.827232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49">
-        <v>44451292277.251152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50">
-        <v>50615133385.741348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51">
-        <v>59823487563.426979</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52">
-        <v>119064658600.44469</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69">
-        <v>504164285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>100832856.99999985</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>126043431.94562975</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72">
-        <v>151629934.07056296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73">
-        <v>177757158.34931144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74">
-        <v>204568632.2764096</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75">
-        <v>233012505.4107686</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76">
-        <v>262663674.47006804</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77">
-        <v>294912947.97113138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78">
-        <v>329850197.70005178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79">
-        <v>367998315.79665565</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80">
-        <v>412474363.21996742</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81">
-        <v>459951486.65319592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82">
-        <v>513670167.04170418</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83">
-        <v>581262072.5286231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84">
-        <v>660907300.08965111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85">
-        <v>748355350.31566215</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86">
-        <v>861797483.25566554</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>0.99998127077621601</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89">
-        <v>0.99748962120904627</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90">
-        <v>0.99268857236816366</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91">
-        <v>0.9858095630590753</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92">
-        <v>0.97343701766799207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93">
-        <v>0.95667235107513249</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94">
-        <v>0.92941802414748065</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95">
-        <v>0.9008393866151152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96">
-        <v>0.86984386487751475</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97">
-        <v>0.82918229547288436</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98">
-        <v>0.79118914941463681</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99">
-        <v>0.74879441789390666</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100">
-        <v>0.68878990377178229</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101">
-        <v>0.63548392728718461</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102">
-        <v>0.58386353145179548</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103">
-        <v>0.52084529261226631</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104">
-        <v>2.8996035003992876E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105">
-        <v>4.0421931837234994E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106">
-        <v>1.4405484111010664E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107">
-        <v>2.1617837402366745E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108">
-        <v>2.7517882459959977E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109">
-        <v>3.5203429365128713E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110">
-        <v>4.1194749805586621E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111">
-        <v>4.853069733297443E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112">
-        <v>6.461787888308354E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113">
-        <v>6.8086583249999083E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114">
-        <v>7.4858041510493745E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115">
-        <v>8.5552503149389586E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116">
-        <v>1.0000233659905333E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117">
-        <v>3.5787388862737152E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118">
-        <v>5.3785831398030347E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119">
-        <v>6.8501031725609349E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120">
-        <v>8.7810352641461507E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121">
-        <v>1.029021168507447E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122">
-        <v>1.2129762491403762E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123">
-        <v>1.6150592648037875E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124">
-        <v>1.7017560617504757E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125">
-        <v>1.8710018895133018E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126">
-        <v>2.1382992637158565E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127">
-        <v>1.419043694092564E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128">
-        <v>2.6054450435744225E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129">
-        <v>3.6243285923412437E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130">
-        <v>4.5349746516770463E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131">
-        <v>6.1303521719955165E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132">
-        <v>8.197047337512206E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133">
-        <v>0.10919188106100687</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134">
-        <v>0.13671156265927012</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135">
-        <v>0.16627394993154701</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136">
-        <v>0.19812493111008436</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137">
-        <v>0.24536046683032056</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138">
-        <v>0.28513040442234722</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139">
-        <v>0.32943269372611012</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C141">
-        <v>0.99998127077621601</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142">
-        <v>0.99748962120904616</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143">
-        <v>0.99268857236816299</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144">
-        <v>0.98580956305907441</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145">
-        <v>0.97394554956425572</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146">
-        <v>0.96375671407658758</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147">
-        <v>0.95465025348322952</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148">
-        <v>0.93869647828004488</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149">
-        <v>0.91802952662487791</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150">
-        <v>0.89080811893899314</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151">
-        <v>0.86328843734072991</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152">
-        <v>0.83372605006845302</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153">
-        <v>0.80187506888991567</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154">
-        <v>0.75463953316967947</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C155">
-        <v>0.71486959557765273</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C156">
-        <v>0.67056730627388994</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>0.20000000000000004</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C158">
-        <v>0.24999999999997252</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159">
-        <v>0.2999999999999996</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160">
-        <v>0.35000000000000359</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161">
-        <v>0.40000000000000124</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C162">
-        <v>0.45000000000000878</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163">
-        <v>0.50000000000000366</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164">
-        <v>0.55000000000000171</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C165">
-        <v>0.5999999999999992</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166">
-        <v>0.64999999999999536</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167">
-        <v>0.69999999999999429</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168">
-        <v>0.75000000000000377</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169">
-        <v>0.80000000000001059</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170">
-        <v>0.84999999999999332</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C171">
-        <v>0.89999999999998648</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172">
-        <v>0.94999999999999762</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C181">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I82"/>
-  <sheetViews>
-    <sheetView topLeftCell="A204" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>1.5393911767314068</v>
-      </c>
-      <c r="G2">
-        <v>3.5397698348784452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>2.4381971493170176</v>
-      </c>
-      <c r="G3">
-        <v>3.8866522170000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>3.6872601489155552</v>
-      </c>
-      <c r="G4">
-        <v>3.8866522170000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>4.1894647733708332</v>
-      </c>
-      <c r="G5">
-        <v>4.8501021174196746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>4.3504539062987808</v>
-      </c>
-      <c r="G6">
-        <v>6.24744522920754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>4.5130610196211682</v>
-      </c>
-      <c r="G7">
-        <v>7.7393022578602606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>4.7870205647356361</v>
-      </c>
-      <c r="G8">
-        <v>9.1929742278783682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9">
-        <v>5.7696645315712818</v>
-      </c>
-      <c r="G9">
-        <v>10.053140070428807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <v>6.3133623555071088</v>
-      </c>
-      <c r="G10">
-        <v>11.690750151828025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>6.7370141394463783</v>
-      </c>
-      <c r="G11">
-        <v>13.690994304130042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <v>7.5107992628431655</v>
-      </c>
-      <c r="G12">
-        <v>15.810286471176097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <v>7.9374913472169277</v>
-      </c>
-      <c r="G13">
-        <v>18.646562179412534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14">
-        <v>8.5654471857439205</v>
-      </c>
-      <c r="G14">
-        <v>21.654205209000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15">
-        <v>10.637873154892562</v>
-      </c>
-      <c r="G15">
-        <v>24.106131875152364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16">
-        <v>11.794709575709126</v>
-      </c>
-      <c r="G16">
-        <v>29.308391139927171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17">
-        <v>13.694294419510237</v>
-      </c>
-      <c r="G17">
-        <v>34.717016324454221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18">
-        <v>17.734306016759273</v>
-      </c>
-      <c r="G18">
-        <v>38.866522170000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19">
-        <v>3.3252121697462636E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20">
-        <v>4.7985793324831029E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21">
-        <v>0.16124580342177772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22">
-        <v>0.24550901410612891</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23">
-        <v>0.34135704912521081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24">
-        <v>0.51012962843441789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25">
-        <v>0.73998494124166025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26">
-        <v>1.1359240610788002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27">
-        <v>2.1212868388408985</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28">
-        <v>3.0399498856486407</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29">
-        <v>6.0952283251308232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30">
-        <v>59.138353322776311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31">
-        <v>1.3966615093284374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32">
-        <v>1.6759715926690069</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33">
-        <v>2.1385898255553264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34">
-        <v>3.2609620636279999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35">
-        <v>6.0092416635497701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36">
-        <v>5.8165190695560005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37">
-        <v>5.7025193270983863</v>
-      </c>
-      <c r="E37">
-        <v>1.0102715637282402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38">
-        <v>5.5150435344062698</v>
-      </c>
-      <c r="E38">
-        <v>1.0576017678603977</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39">
-        <v>5.2891963616026318</v>
-      </c>
-      <c r="E39">
-        <v>1.1047276493556766</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40">
-        <v>5.0384165697008152</v>
-      </c>
-      <c r="E40">
-        <v>1.1474703475757813</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41">
-        <v>4.8398412222357825</v>
-      </c>
-      <c r="E41">
-        <v>1.0623752531422914</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42">
-        <v>4.646984372532609</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43">
-        <v>4.3738484704225105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44">
-        <v>4.0927108952729006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45">
-        <v>3.7663630696015278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46">
-        <v>3.3843021166408258</v>
-      </c>
-      <c r="E46">
-        <v>1.0164671153763023</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47">
-        <v>2.9964947286760002</v>
-      </c>
-      <c r="E47">
-        <v>1.0160547002735341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48">
-        <v>2.4341570537919348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49">
-        <v>1.821537825350084</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50">
-        <v>12.344626088157581</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51">
-        <v>11.54308297562236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52">
-        <v>10.746561334549467</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53">
-        <v>9.9564968833610425</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54">
-        <v>9.162761054069815</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55">
-        <v>8.3579716453467192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56">
-        <v>7.5766272199839273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57">
-        <v>6.8010997408340641</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58">
-        <v>6.0074968890820939</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59">
-        <v>5.2159816276311783</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60">
-        <v>4.4228087149625024</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61">
-        <v>3.6160649680438275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62">
-        <v>2.8303947639449327</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63">
-        <v>2.0534556573402059</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64">
-        <v>1.2636099153343077</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65">
-        <v>24.74104809361501</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66">
-        <v>25.121469671608917</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67">
-        <v>25.549413047331921</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68">
-        <v>26.104690120197628</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69">
-        <v>26.719669156195465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70">
-        <v>27.434588117984248</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71">
-        <v>28.265398288975014</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72">
-        <v>29.298035996875665</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73">
-        <v>30.587968241579922</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74">
-        <v>32.186222461709043</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75">
-        <v>34.303342523127988</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76">
-        <v>36.86176283463805</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77">
-        <v>39.939815752827236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78">
-        <v>44.451292277251156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79">
-        <v>50.615133385741352</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80">
-        <v>59.82348756342698</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81">
-        <v>119.06465860044469</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5922,13 +2618,13 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -5937,7 +2633,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5952,13 +2648,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5973,13 +2669,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5994,13 +2690,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -6015,13 +2711,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -6036,18 +2732,18 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>10.8901704951429</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -6057,16 +2753,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>8.8565067209099464</v>
+        <v>24.540191602974001</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -6075,16 +2771,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>29.760361198082308</v>
+        <v>41.259641847727401</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -6093,16 +2789,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>45.312416088570785</v>
+        <v>62.689996343009</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -6111,16 +2807,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>63.002626201096831</v>
+        <v>80.137064341928706</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -6129,16 +2825,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>94.152168167381774</v>
+        <v>110.959022328347</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -6147,16 +2843,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>136.57545601288638</v>
+        <v>175.33146339263399</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -6165,16 +2861,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>209.65203207720731</v>
+        <v>292.746609021089</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -6183,16 +2879,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16">
-        <v>391.5156933635709</v>
+        <v>456.05066718910399</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
@@ -6201,16 +2897,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F17">
-        <v>561.06890660792089</v>
+        <v>695.47340064812897</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -6219,16 +2915,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18">
-        <v>1124.9669305575017</v>
+        <v>17</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
@@ -6237,16 +2930,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19">
-        <v>10914.880996573787</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -6258,7 +2948,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6269,13 +2959,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6286,13 +2976,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6303,13 +2993,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6320,13 +3010,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6337,453 +3027,255 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>3.3611637330687998</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>2.7008125327961325</v>
+        <v>6.3960211608349802</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F27">
-        <v>6.4196097352863086</v>
+        <v>9.4519421399734895</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F28">
-        <v>8.1074343678988559</v>
+        <v>12.684861477924001</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F29">
-        <v>10.199577289157723</v>
+        <v>14.3992064179452</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F30">
-        <v>12.256004779575044</v>
+        <v>16.614140257051101</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>14.890981014137127</v>
+        <v>19.903360620734901</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F32">
-        <v>18.939120142863072</v>
+        <v>24.405647808919799</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>27.387947114694033</v>
+        <v>34.010083921218502</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F34">
-        <v>32.865100841662965</v>
+        <v>46.103368781818901</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35">
-        <v>41.936850590588151</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36">
-        <v>63.946099999999994</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37">
-        <v>58.687622747319658</v>
-      </c>
-      <c r="E37">
-        <v>18.328270738145839</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38">
-        <v>56.80545</v>
-      </c>
-      <c r="E38">
-        <v>20.004249999999999</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39">
-        <v>55.69210255064948</v>
-      </c>
-      <c r="E39">
-        <v>21.117597449350519</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40">
-        <v>53.861171259849918</v>
-      </c>
-      <c r="E40">
-        <v>22.106935597570789</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41">
-        <v>51.655496331439906</v>
-      </c>
-      <c r="E41">
-        <v>23.092002811766665</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42">
-        <v>49.206323766279482</v>
-      </c>
-      <c r="E42">
-        <v>23.98544881907609</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43">
-        <v>47.266991695540028</v>
-      </c>
-      <c r="E43">
-        <v>22.206715245175065</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44">
-        <v>45.383507776384334</v>
-      </c>
-      <c r="E44">
-        <v>19.47674979674872</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45">
-        <v>42.716000347116257</v>
-      </c>
-      <c r="E45">
-        <v>18.927785969445878</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46">
-        <v>39.970346756488297</v>
-      </c>
-      <c r="E46">
-        <v>19.311446016434573</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47">
-        <v>36.783159562206656</v>
-      </c>
-      <c r="E47">
-        <v>20.114046597123163</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48">
-        <v>33.051865277630668</v>
-      </c>
-      <c r="E48">
-        <v>21.247102396711021</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49">
-        <v>29.264450000000004</v>
-      </c>
-      <c r="E49">
-        <v>21.238481728333351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50">
-        <v>23.772532189407929</v>
-      </c>
-      <c r="E50">
-        <v>19.408351799868651</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51">
-        <v>17.789553274675587</v>
-      </c>
-      <c r="E51">
-        <v>19.062359504639861</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52">
-        <v>8.6751230671826569</v>
-      </c>
-      <c r="E52">
-        <v>20.084664017479167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6793,7 +3285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R69"/>
   <sheetViews>
@@ -6811,104 +3303,104 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="P1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>25.433283207714929</v>
@@ -6927,13 +3419,13 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>40.283041472598143</v>
@@ -6952,13 +3444,13 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>60.692858842937227</v>
@@ -6980,13 +3472,13 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>60.692858842937227</v>
@@ -7011,13 +3503,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>60.692858842937227</v>
@@ -7042,13 +3534,13 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>60.692858842937227</v>
@@ -7073,13 +3565,13 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>60.692858842937227</v>
@@ -7107,13 +3599,13 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>60.692858842937227</v>
@@ -7144,13 +3636,13 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>60.692858842937227</v>
@@ -7184,13 +3676,13 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>60.692858842937227</v>
@@ -7224,13 +3716,13 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>60.692858842937227</v>
@@ -7267,13 +3759,13 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>60.692858842937227</v>
@@ -7313,13 +3805,13 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>60.692858842937227</v>
@@ -7359,13 +3851,13 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>60.692858842937227</v>
@@ -7408,13 +3900,13 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>60.692858842937227</v>
@@ -7457,13 +3949,13 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>60.692858842937227</v>
@@ -7509,13 +4001,13 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>60.692858842937227</v>
@@ -7564,13 +4056,13 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O20">
         <v>2360.6956434165695</v>
@@ -7590,13 +4082,13 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O21">
         <v>380648.57056447095</v>
@@ -7616,13 +4108,13 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>44582.252043058979</v>
@@ -7645,13 +4137,13 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>297445.88916656107</v>
@@ -7677,13 +4169,13 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>962841.27066960582</v>
@@ -7712,13 +4204,13 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <v>1865841.28922462</v>
@@ -7750,13 +4242,13 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>2084261.2130188786</v>
@@ -7791,13 +4283,13 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>2573394.8055517287</v>
@@ -7835,13 +4327,13 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>3196752.4593922691</v>
@@ -7879,13 +4371,13 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>3735094.5746663706</v>
@@ -7926,13 +4418,13 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>4514309.3124018451</v>
@@ -7982,13 +4474,13 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D31">
         <v>6320020.0224365126</v>
@@ -8038,13 +4530,13 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <v>14140257.05142493</v>
@@ -8091,13 +4583,13 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>19080425.541779898</v>
@@ -8147,13 +4639,13 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>24665040.090821084</v>
@@ -8203,13 +4695,13 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>29885356.301635411</v>
@@ -8262,13 +4754,13 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O36">
         <v>3.1032286715004363E-5</v>
@@ -8287,13 +4779,13 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O37">
         <v>5.0037774299093798E-3</v>
@@ -8312,13 +4804,13 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>5.9214351242475145E-4</v>
@@ -8341,13 +4833,13 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>3.9506899157377273E-3</v>
@@ -8373,13 +4865,13 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>1.2788501831875862E-2</v>
@@ -8408,13 +4900,13 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D41">
         <v>2.4782189413883739E-2</v>
@@ -8446,13 +4938,13 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D42">
         <v>2.7683252840068714E-2</v>
@@ -8487,13 +4979,13 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <v>3.4179947606577998E-2</v>
@@ -8531,13 +5023,13 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D44">
         <v>4.2459412499591578E-2</v>
@@ -8575,13 +5067,13 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>4.9609697117710308E-2</v>
@@ -8622,13 +5114,13 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D46">
         <v>5.9959262933501165E-2</v>
@@ -8672,13 +5164,13 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>8.3942795242057791E-2</v>
@@ -8722,13 +5214,13 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>0.18781154143879145</v>
@@ -8775,13 +5267,13 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>0.2534270854679162</v>
@@ -8828,13 +5320,13 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>0.32760219154855369</v>
@@ -8884,13 +5376,13 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>0.39693867042480935</v>
@@ -8943,13 +5435,13 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O52">
         <f t="shared" ref="O52:O67" si="6">O20/O36</f>
@@ -8970,13 +5462,13 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O53">
         <f t="shared" si="6"/>
@@ -8997,13 +5489,13 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D54">
         <f t="shared" ref="D54:D67" si="10">D22/D38</f>
@@ -9028,13 +5520,13 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D55">
         <f t="shared" si="10"/>
@@ -9063,13 +5555,13 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <f t="shared" si="10"/>
@@ -9102,13 +5594,13 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D57">
         <f t="shared" si="10"/>
@@ -9145,13 +5637,13 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D58">
         <f t="shared" si="10"/>
@@ -9192,13 +5684,13 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D59">
         <f t="shared" si="10"/>
@@ -9243,13 +5735,13 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D60">
         <f t="shared" si="10"/>
@@ -9294,13 +5786,13 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D61">
         <f t="shared" si="10"/>
@@ -9349,13 +5841,13 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D62">
         <f t="shared" si="10"/>
@@ -9408,13 +5900,13 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D63">
         <f t="shared" si="10"/>
@@ -9467,13 +5959,13 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D64">
         <f t="shared" si="10"/>
@@ -9530,13 +6022,13 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D65">
         <f t="shared" si="10"/>
@@ -9593,13 +6085,13 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D66">
         <f t="shared" si="10"/>
@@ -9660,13 +6152,13 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D67">
         <f t="shared" si="10"/>
@@ -9731,7 +6223,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -9739,7 +6231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9754,11 +6246,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -9769,24 +6261,24 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -9795,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E18" si="0">B2/100</f>
@@ -9804,7 +6296,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -9813,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -9822,7 +6314,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -9831,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -9840,7 +6332,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>35</v>
@@ -9849,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -9858,7 +6350,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -9867,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -9876,7 +6368,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -9885,7 +6377,7 @@
         <v>27.187103927446099</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -9894,7 +6386,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -9903,7 +6395,7 @@
         <v>43.412656719508298</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -9912,7 +6404,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>55</v>
@@ -9921,7 +6413,7 @@
         <v>60.396607444319798</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -9930,7 +6422,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -9939,7 +6431,7 @@
         <v>86.551849847157101</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -9948,7 +6440,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>65</v>
@@ -9957,7 +6449,7 @@
         <v>138.91811804019099</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -9966,7 +6458,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>70</v>
@@ -9975,7 +6467,7 @@
         <v>196.12586450557299</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -9984,7 +6476,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>75</v>
@@ -9993,7 +6485,7 @@
         <v>270.83564214092598</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -10002,7 +6494,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>80</v>
@@ -10011,7 +6503,7 @@
         <v>352.83913678925398</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -10020,7 +6512,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>85</v>
@@ -10029,7 +6521,7 @@
         <v>461.07218936113998</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -10038,7 +6530,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>90</v>
@@ -10047,7 +6539,7 @@
         <v>687.35800435822296</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -10056,7 +6548,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>95</v>
@@ -10065,7 +6557,7 @@
         <v>1248.26764548131</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -10074,7 +6566,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -10083,7 +6575,7 @@
         <v>4230.7367070529699</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -10092,7 +6584,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -10101,12 +6593,12 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>25</v>
@@ -10115,12 +6607,12 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -10129,12 +6621,12 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>35</v>
@@ -10143,12 +6635,12 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>40</v>
@@ -10157,12 +6649,12 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>45</v>
@@ -10171,12 +6663,12 @@
         <v>6.1236850593377996</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>50</v>
@@ -10185,12 +6677,12 @@
         <v>8.2065378444029893</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>55</v>
@@ -10199,12 +6691,12 @@
         <v>10.2142698009644</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>60</v>
@@ -10213,12 +6705,12 @@
         <v>12.216238131962299</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>65</v>
@@ -10227,12 +6719,12 @@
         <v>18.992394794164699</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>70</v>
@@ -10241,12 +6733,12 @@
         <v>26.375416369456101</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>75</v>
@@ -10255,12 +6747,12 @@
         <v>36.421343523685898</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>80</v>
@@ -10269,12 +6761,12 @@
         <v>44.763685638172497</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>85</v>
@@ -10283,12 +6775,12 @@
         <v>53.542907442285802</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>90</v>
@@ -10297,12 +6789,12 @@
         <v>58.610731907019499</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>95</v>
@@ -10311,12 +6803,12 @@
         <v>62.989716622882497</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>100</v>
@@ -10325,12 +6817,12 @@
         <v>67.311512760667497</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>25</v>
@@ -10338,7 +6830,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -10346,7 +6838,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>35</v>
@@ -10354,7 +6846,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B39">
         <v>40</v>
@@ -10362,7 +6854,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>45</v>
@@ -10373,7 +6865,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B41">
         <v>50</v>
@@ -10384,7 +6876,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B42">
         <v>55</v>
@@ -10395,7 +6887,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B43">
         <v>60</v>
@@ -10406,7 +6898,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>65</v>
@@ -10417,7 +6909,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>70</v>
@@ -10428,7 +6920,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B46">
         <v>75</v>
@@ -10439,7 +6931,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>80</v>
@@ -10450,7 +6942,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>85</v>
@@ -10461,7 +6953,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B49">
         <v>90</v>
@@ -10472,7 +6964,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B50">
         <v>95</v>
@@ -10480,7 +6972,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B51">
         <v>100</v>

--- a/analysis/Results_model/DOLORES_max_cap_6regions/Figure11_compare.xlsx
+++ b/analysis/Results_model/DOLORES_max_cap_6regions/Figure11_compare.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="report_tech" sheetId="4" r:id="rId1"/>
-    <sheet name="report_tech_r_D" sheetId="7" r:id="rId2"/>
+    <sheet name="report_tech_old" sheetId="7" r:id="rId2"/>
     <sheet name="figure" sheetId="9" r:id="rId3"/>
     <sheet name="report_tech_M" sheetId="10" r:id="rId4"/>
+    <sheet name="report_tech_D" sheetId="11" r:id="rId5"/>
+    <sheet name="Tabelle2" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">report_tech_M!$A$1:$C$1</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="43">
   <si>
     <t>20</t>
   </si>
@@ -157,6 +159,9 @@
   <si>
     <t>Category</t>
   </si>
+  <si>
+    <t>renewable generation</t>
+  </si>
 </sst>
 </file>
 
@@ -171,12 +176,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,9 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -351,40 +364,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.6038915921655894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.4047814871401645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.8901704951429</c:v>
+                  <c:v>19.963370777682265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.540191602974001</c:v>
+                  <c:v>34.86268009300548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.259641847727401</c:v>
+                  <c:v>66.738819692480419</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.689996343009</c:v>
+                  <c:v>84.096602127245049</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.137064341928706</c:v>
+                  <c:v>117.7602182370584</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.959022328347</c:v>
+                  <c:v>167.31567331023328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>175.33146339263399</c:v>
+                  <c:v>241.40839945696644</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>292.746609021089</c:v>
+                  <c:v>337.05073901179833</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>456.05066718910399</c:v>
+                  <c:v>453.48878154759933</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>695.47340064812897</c:v>
+                  <c:v>573.29806541502944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,40 +495,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.6832971899189142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.1810745153350242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3611637330687998</c:v>
+                  <c:v>5.4338196080728887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3960211608349802</c:v>
+                  <c:v>7.7491884201820724</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4519421399734895</c:v>
+                  <c:v>12.011737909476146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.684861477924001</c:v>
+                  <c:v>12.540935289861869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.3992064179452</c:v>
+                  <c:v>15.45427819671114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.614140257051101</c:v>
+                  <c:v>22.149330680733641</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.903360620734901</c:v>
+                  <c:v>34.112445297648719</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.405647808919799</c:v>
+                  <c:v>45.147321503628397</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.010083921218502</c:v>
+                  <c:v>52.619361368716682</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.103368781818901</c:v>
+                  <c:v>56.49929704566923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -548,7 +561,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>report_tech_r_D!$R$36:$R$51</c:f>
+              <c:f>report_tech_old!$R$36:$R$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1113,7 +1126,7 @@
           <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Storage energy capacity DOLORES</c:v>
+            <c:v>Storage energy capacity 6 regions</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1227,37 +1240,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.4047814871401645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.8901704951429</c:v>
+                  <c:v>19.963370777682265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.540191602974001</c:v>
+                  <c:v>34.86268009300548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.259641847727401</c:v>
+                  <c:v>66.738819692480419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.689996343009</c:v>
+                  <c:v>84.096602127245049</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.137064341928706</c:v>
+                  <c:v>117.7602182370584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110.959022328347</c:v>
+                  <c:v>167.31567331023328</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175.33146339263399</c:v>
+                  <c:v>241.40839945696644</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>292.746609021089</c:v>
+                  <c:v>337.05073901179833</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>456.05066718910399</c:v>
+                  <c:v>453.48878154759933</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>695.47340064812897</c:v>
+                  <c:v>573.29806541502944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,7 +1280,7 @@
           <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Storage Power capacity DOLORES</c:v>
+            <c:v>Storage Power capacity 6 regions</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1352,37 +1365,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.1810745153350242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3611637330687998</c:v>
+                  <c:v>5.4338196080728887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3960211608349802</c:v>
+                  <c:v>7.7491884201820724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4519421399734895</c:v>
+                  <c:v>12.011737909476146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.684861477924001</c:v>
+                  <c:v>12.540935289861869</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.3992064179452</c:v>
+                  <c:v>15.45427819671114</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.614140257051101</c:v>
+                  <c:v>22.149330680733641</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.903360620734901</c:v>
+                  <c:v>34.112445297648719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.405647808919799</c:v>
+                  <c:v>45.147321503628397</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.010083921218502</c:v>
+                  <c:v>52.619361368716682</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.103368781818901</c:v>
+                  <c:v>56.49929704566923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,7 +1405,7 @@
           <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Storage Energy capacity MORITS</c:v>
+            <c:v>Storage Energy capacity 1 region</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1564,7 +1577,7 @@
           <c:idx val="1"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Storage Power capacity MORITS</c:v>
+            <c:v>Storage Power capacity 1 region</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1694,7 +1707,7 @@
           <c:idx val="5"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Curtailment DOLORES</c:v>
+            <c:v>Curtailment 6 regions</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050">
@@ -1715,51 +1728,42 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>report_tech_r_D!$R$36:$R$49</c:f>
+              <c:f>report_tech_D!$P$39:$P$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.1032286715004363E-5</c:v>
+                  <c:v>1.2135282325329701E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0037774299093798E-3</c:v>
+                  <c:v>2.0189195985738949E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5864344748973007E-3</c:v>
+                  <c:v>3.0225344984532974E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7637964294485876E-2</c:v>
+                  <c:v>4.1190041436737899E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5983061631926867E-2</c:v>
+                  <c:v>5.9657204709540904E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5243262557421835E-2</c:v>
+                  <c:v>7.78881510025934E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1771007630496584E-2</c:v>
+                  <c:v>9.1664012214111953E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5924938580151747E-2</c:v>
+                  <c:v>0.10130769495152424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5120370202561043E-2</c:v>
+                  <c:v>0.1138480826464168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10041084579686019</c:v>
+                  <c:v>0.13761116636475293</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12642135097419463</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1541441874401431</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.18197433846204655</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2283429062128168</c:v>
+                  <c:v>0.18415718029765601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,7 +1773,7 @@
           <c:idx val="2"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Curtailment MORITS</c:v>
+            <c:v>Curtailment 1 region</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050">
@@ -2308,6 +2312,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="0"/>
+          <a:ext cx="11327350" cy="6340390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2607,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2700,8 +2747,8 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0</v>
+      <c r="F6">
+        <v>4.6038915921655894</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -2721,8 +2768,8 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>0</v>
+      <c r="F7">
+        <v>9.4047814871401645</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -2742,8 +2789,8 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>10.8901704951429</v>
+      <c r="F8">
+        <v>19.963370777682265</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -2762,7 +2809,7 @@
         <v>17</v>
       </c>
       <c r="F9">
-        <v>24.540191602974001</v>
+        <v>34.86268009300548</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -2780,7 +2827,7 @@
         <v>17</v>
       </c>
       <c r="F10">
-        <v>41.259641847727401</v>
+        <v>66.738819692480419</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -2798,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F11">
-        <v>62.689996343009</v>
+        <v>84.096602127245049</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -2816,7 +2863,7 @@
         <v>17</v>
       </c>
       <c r="F12">
-        <v>80.137064341928706</v>
+        <v>117.7602182370584</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -2834,7 +2881,7 @@
         <v>17</v>
       </c>
       <c r="F13">
-        <v>110.959022328347</v>
+        <v>167.31567331023328</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -2852,7 +2899,7 @@
         <v>17</v>
       </c>
       <c r="F14">
-        <v>175.33146339263399</v>
+        <v>241.40839945696644</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -2870,7 +2917,7 @@
         <v>17</v>
       </c>
       <c r="F15">
-        <v>292.746609021089</v>
+        <v>337.05073901179833</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -2888,7 +2935,7 @@
         <v>17</v>
       </c>
       <c r="F16">
-        <v>456.05066718910399</v>
+        <v>453.48878154759933</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
@@ -2906,7 +2953,7 @@
         <v>17</v>
       </c>
       <c r="F17">
-        <v>695.47340064812897</v>
+        <v>573.29806541502944</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -2923,6 +2970,9 @@
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F18">
+        <v>1101.0029072730281</v>
+      </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0.95</v>
@@ -2937,6 +2987,9 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="F19">
+        <v>5349.8986075255507</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -3003,8 +3056,8 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>0</v>
+      <c r="F23">
+        <v>1.6832971899189142</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -3020,8 +3073,8 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <v>0</v>
+      <c r="F24">
+        <v>3.1810745153350242</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -3037,8 +3090,8 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <v>3.3611637330687998</v>
+      <c r="F25">
+        <v>5.4338196080728887</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -3053,7 +3106,7 @@
         <v>17</v>
       </c>
       <c r="F26">
-        <v>6.3960211608349802</v>
+        <v>7.7491884201820724</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3067,7 +3120,7 @@
         <v>17</v>
       </c>
       <c r="F27">
-        <v>9.4519421399734895</v>
+        <v>12.011737909476146</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3081,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="F28">
-        <v>12.684861477924001</v>
+        <v>12.540935289861869</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3095,7 +3148,7 @@
         <v>17</v>
       </c>
       <c r="F29">
-        <v>14.3992064179452</v>
+        <v>15.45427819671114</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3109,7 +3162,7 @@
         <v>17</v>
       </c>
       <c r="F30">
-        <v>16.614140257051101</v>
+        <v>22.149330680733641</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3123,7 +3176,7 @@
         <v>17</v>
       </c>
       <c r="F31">
-        <v>19.903360620734901</v>
+        <v>34.112445297648719</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3137,7 +3190,7 @@
         <v>17</v>
       </c>
       <c r="F32">
-        <v>24.405647808919799</v>
+        <v>45.147321503628397</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3151,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>34.010083921218502</v>
+        <v>52.619361368716682</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3165,7 +3218,7 @@
         <v>17</v>
       </c>
       <c r="F34">
-        <v>46.103368781818901</v>
+        <v>56.49929704566923</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3178,6 +3231,9 @@
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F35">
+        <v>63.918378600121969</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
@@ -3188,6 +3244,9 @@
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="F36">
+        <v>100.28890279047621</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3289,8 +3348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:B67"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5721,7 +5780,7 @@
         <v>76072242.600000024</v>
       </c>
       <c r="P59">
-        <f t="shared" si="7"/>
+        <f>SUM(D59:I59)</f>
         <v>125932806.39998005</v>
       </c>
       <c r="Q59">
@@ -5953,7 +6012,7 @@
         <v>344283552.90000057</v>
       </c>
       <c r="R63">
-        <f t="shared" si="9"/>
+        <f>SUM(Q63+P63)</f>
         <v>513670167.04170597</v>
       </c>
     </row>
@@ -6235,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6250,7 +6309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -6982,4 +7041,2278 @@
   <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>25.433283207714918</v>
+      </c>
+      <c r="O3">
+        <v>32.513787200312414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>40.283041472608645</v>
+      </c>
+      <c r="O4">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E5">
+        <v>0.22676512620369346</v>
+      </c>
+      <c r="O5">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E6">
+        <v>9.5938769177435077</v>
+      </c>
+      <c r="N6">
+        <v>8.2734945662010002</v>
+      </c>
+      <c r="O6">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E7">
+        <v>13.445004394002259</v>
+      </c>
+      <c r="N7">
+        <v>20.34423679460409</v>
+      </c>
+      <c r="O7">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E8">
+        <v>18.839448090684225</v>
+      </c>
+      <c r="N8">
+        <v>32.087400347544964</v>
+      </c>
+      <c r="O8">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E9">
+        <v>17.654331269842874</v>
+      </c>
+      <c r="F9">
+        <v>5.9546870468418422</v>
+      </c>
+      <c r="N9">
+        <v>44.940123982056093</v>
+      </c>
+      <c r="O9">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E10">
+        <v>18.319341635033634</v>
+      </c>
+      <c r="F10">
+        <v>22.438779703730368</v>
+      </c>
+      <c r="N10">
+        <v>51</v>
+      </c>
+      <c r="O10">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E11">
+        <v>17.800175296533304</v>
+      </c>
+      <c r="F11">
+        <v>32.249001356804818</v>
+      </c>
+      <c r="L11">
+        <v>13.938385337923105</v>
+      </c>
+      <c r="N11">
+        <v>51</v>
+      </c>
+      <c r="O11">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E12">
+        <v>26.277744813824473</v>
+      </c>
+      <c r="F12">
+        <v>33.485715223689503</v>
+      </c>
+      <c r="L12">
+        <v>28.638771502342717</v>
+      </c>
+      <c r="N12">
+        <v>51</v>
+      </c>
+      <c r="O12">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E13">
+        <v>28.776260756809556</v>
+      </c>
+      <c r="F13">
+        <v>33.485715223689503</v>
+      </c>
+      <c r="G13">
+        <v>12.636086688441221</v>
+      </c>
+      <c r="L13">
+        <v>40.084486092518254</v>
+      </c>
+      <c r="N13">
+        <v>51</v>
+      </c>
+      <c r="O13">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E14">
+        <v>42.280874215622987</v>
+      </c>
+      <c r="F14">
+        <v>33.485715223689503</v>
+      </c>
+      <c r="G14">
+        <v>11.138477991193493</v>
+      </c>
+      <c r="I14">
+        <v>14.788453294306652</v>
+      </c>
+      <c r="L14">
+        <v>40.800000000000004</v>
+      </c>
+      <c r="M14">
+        <v>3.5167835235491802</v>
+      </c>
+      <c r="N14">
+        <v>51</v>
+      </c>
+      <c r="O14">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E15">
+        <v>56.45851775346619</v>
+      </c>
+      <c r="F15">
+        <v>33.485715223689503</v>
+      </c>
+      <c r="G15">
+        <v>21.35607012595683</v>
+      </c>
+      <c r="I15">
+        <v>15.175119701867443</v>
+      </c>
+      <c r="L15">
+        <v>40.800000000000004</v>
+      </c>
+      <c r="M15">
+        <v>11.191574075001641</v>
+      </c>
+      <c r="N15">
+        <v>51</v>
+      </c>
+      <c r="O15">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E16">
+        <v>69.064287648859604</v>
+      </c>
+      <c r="F16">
+        <v>33.485715223689503</v>
+      </c>
+      <c r="G16">
+        <v>40.633368309802961</v>
+      </c>
+      <c r="I16">
+        <v>0.6290191497919404</v>
+      </c>
+      <c r="L16">
+        <v>40.800000000000004</v>
+      </c>
+      <c r="M16">
+        <v>27.226296585874426</v>
+      </c>
+      <c r="N16">
+        <v>51</v>
+      </c>
+      <c r="O16">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E17">
+        <v>69.064287648859604</v>
+      </c>
+      <c r="F17">
+        <v>33.485715223689503</v>
+      </c>
+      <c r="G17">
+        <v>29.342364872940255</v>
+      </c>
+      <c r="H17">
+        <v>20.490520429293568</v>
+      </c>
+      <c r="L17">
+        <v>40.800000000000004</v>
+      </c>
+      <c r="M17">
+        <v>61.913306352771272</v>
+      </c>
+      <c r="N17">
+        <v>51</v>
+      </c>
+      <c r="O17">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E18">
+        <v>69.064287648859604</v>
+      </c>
+      <c r="F18">
+        <v>33.485715223689503</v>
+      </c>
+      <c r="G18">
+        <v>58.600001641456629</v>
+      </c>
+      <c r="H18">
+        <v>25.791565350385866</v>
+      </c>
+      <c r="K18">
+        <v>16.224459475785551</v>
+      </c>
+      <c r="L18">
+        <v>40.800000000000004</v>
+      </c>
+      <c r="M18">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="N18">
+        <v>51</v>
+      </c>
+      <c r="O18">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>60.692858842937227</v>
+      </c>
+      <c r="E19">
+        <v>69.064287648859604</v>
+      </c>
+      <c r="F19">
+        <v>33.485715223689503</v>
+      </c>
+      <c r="G19">
+        <v>58.600001641456629</v>
+      </c>
+      <c r="H19">
+        <v>41.857144029611881</v>
+      </c>
+      <c r="I19">
+        <v>29.300000820728314</v>
+      </c>
+      <c r="J19">
+        <v>73.95</v>
+      </c>
+      <c r="K19">
+        <v>84.15</v>
+      </c>
+      <c r="L19">
+        <v>40.800000000000004</v>
+      </c>
+      <c r="M19">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="N19">
+        <v>51</v>
+      </c>
+      <c r="O19">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20">
+        <v>2360.6956434376625</v>
+      </c>
+      <c r="P20">
+        <f>SUM(D20:O20)</f>
+        <v>2360.6956434376625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>8677.7953451365538</v>
+      </c>
+      <c r="O21">
+        <v>371970.7752193397</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P35" si="0">SUM(D21:O21)</f>
+        <v>380648.57056447625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>20034.687862492035</v>
+      </c>
+      <c r="E22">
+        <v>518001.02313659305</v>
+      </c>
+      <c r="N22">
+        <v>283484.9627260362</v>
+      </c>
+      <c r="O22">
+        <v>375252.84179424099</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>1196773.5155193624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>177089.61522067586</v>
+      </c>
+      <c r="E23">
+        <v>1006124.0717040533</v>
+      </c>
+      <c r="N23">
+        <v>779594.35082582955</v>
+      </c>
+      <c r="O23">
+        <v>522138.21108366153</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>2484946.2488342207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>634525.33455891849</v>
+      </c>
+      <c r="E24">
+        <v>1675023.2299980943</v>
+      </c>
+      <c r="N24">
+        <v>1515225.6641091625</v>
+      </c>
+      <c r="O24">
+        <v>875300.89109500055</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>4700075.1197611755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>1376915.8140688532</v>
+      </c>
+      <c r="E25">
+        <v>2124110.4537697402</v>
+      </c>
+      <c r="F25">
+        <v>921124.2675187256</v>
+      </c>
+      <c r="N25">
+        <v>1402452.9294199159</v>
+      </c>
+      <c r="O25">
+        <v>2094364.6024794977</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>7918968.0672567328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>1802295.50294451</v>
+      </c>
+      <c r="E26">
+        <v>2934394.9691360802</v>
+      </c>
+      <c r="F26">
+        <v>2047615.0973398539</v>
+      </c>
+      <c r="N26">
+        <v>1479077.5510356759</v>
+      </c>
+      <c r="O26">
+        <v>3807432.408279446</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>12070815.528735567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>2194930.1916753226</v>
+      </c>
+      <c r="E27">
+        <v>4622377.446065099</v>
+      </c>
+      <c r="F27">
+        <v>3105035.5529229348</v>
+      </c>
+      <c r="L27">
+        <v>3328631.6895757047</v>
+      </c>
+      <c r="N27">
+        <v>1283003.9682313418</v>
+      </c>
+      <c r="O27">
+        <v>4949008.1346101491</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>19482986.983080555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>2776605.0121552628</v>
+      </c>
+      <c r="E28">
+        <v>7396693.5632276898</v>
+      </c>
+      <c r="F28">
+        <v>3537538.2803576379</v>
+      </c>
+      <c r="L28">
+        <v>6305557.1085963426</v>
+      </c>
+      <c r="N28">
+        <v>1389521.0145985587</v>
+      </c>
+      <c r="O28">
+        <v>6794532.2008369388</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>28200447.179772429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>3547291.0732294163</v>
+      </c>
+      <c r="E29">
+        <v>8023873.7641813792</v>
+      </c>
+      <c r="F29">
+        <v>3027672.2216518284</v>
+      </c>
+      <c r="G29">
+        <v>2588468.4426616454</v>
+      </c>
+      <c r="L29">
+        <v>8344602.7154643722</v>
+      </c>
+      <c r="N29">
+        <v>2092808.094244753</v>
+      </c>
+      <c r="O29">
+        <v>8888173.7386086546</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>36512890.050042048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>3456218.805301473</v>
+      </c>
+      <c r="E30">
+        <v>7802511.7716218233</v>
+      </c>
+      <c r="F30">
+        <v>2201526.5208161245</v>
+      </c>
+      <c r="G30">
+        <v>3522448.2835804541</v>
+      </c>
+      <c r="I30">
+        <v>2922949.4257842219</v>
+      </c>
+      <c r="L30">
+        <v>9531037.4425209947</v>
+      </c>
+      <c r="M30">
+        <v>1678117.3566544179</v>
+      </c>
+      <c r="N30">
+        <v>3945237.7989808936</v>
+      </c>
+      <c r="O30">
+        <v>8527418.5290633421</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>43587465.934323743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>5499065.48285833</v>
+      </c>
+      <c r="E31">
+        <v>7904141.118214285</v>
+      </c>
+      <c r="F31">
+        <v>4417487.7923409883</v>
+      </c>
+      <c r="G31">
+        <v>3822936.3245331445</v>
+      </c>
+      <c r="I31">
+        <v>3585690.1216739309</v>
+      </c>
+      <c r="L31">
+        <v>9329044.1122366153</v>
+      </c>
+      <c r="M31">
+        <v>4748848.3168947911</v>
+      </c>
+      <c r="N31">
+        <v>5215357.5345801823</v>
+      </c>
+      <c r="O31">
+        <v>9680810.0881170295</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>54203380.891449302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>15563248.759808796</v>
+      </c>
+      <c r="E32">
+        <v>3867897.6652373499</v>
+      </c>
+      <c r="F32">
+        <v>8081120.2652100576</v>
+      </c>
+      <c r="G32">
+        <v>5230970.6781311613</v>
+      </c>
+      <c r="I32">
+        <v>394991.78309239581</v>
+      </c>
+      <c r="L32">
+        <v>11767893.721886115</v>
+      </c>
+      <c r="M32">
+        <v>10237899.186795097</v>
+      </c>
+      <c r="N32">
+        <v>6056432.0856217965</v>
+      </c>
+      <c r="O32">
+        <v>10521445.919514926</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>71721900.065297693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>19471282.545246217</v>
+      </c>
+      <c r="E33">
+        <v>5031543.5060471818</v>
+      </c>
+      <c r="F33">
+        <v>7944887.8277121158</v>
+      </c>
+      <c r="G33">
+        <v>6228988.6175958887</v>
+      </c>
+      <c r="H33">
+        <v>5974076.091508205</v>
+      </c>
+      <c r="L33">
+        <v>19074152.245033171</v>
+      </c>
+      <c r="M33">
+        <v>11248147.975417053</v>
+      </c>
+      <c r="N33">
+        <v>14749203.571481289</v>
+      </c>
+      <c r="O33">
+        <v>17554701.445318088</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>107276983.8253592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>29195866.387012124</v>
+      </c>
+      <c r="E34">
+        <v>7879499.3617148707</v>
+      </c>
+      <c r="F34">
+        <v>15920045.687180748</v>
+      </c>
+      <c r="G34">
+        <v>9269980.0636118799</v>
+      </c>
+      <c r="H34">
+        <v>9086175.7743077893</v>
+      </c>
+      <c r="K34">
+        <v>9864365.8171511982</v>
+      </c>
+      <c r="L34">
+        <v>21609739.044775743</v>
+      </c>
+      <c r="M34">
+        <v>10814434.412280126</v>
+      </c>
+      <c r="N34">
+        <v>18603055.706184387</v>
+      </c>
+      <c r="O34">
+        <v>20100779.300000004</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>152343941.55421889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>46139088.819949411</v>
+      </c>
+      <c r="E35">
+        <v>16357578.164725527</v>
+      </c>
+      <c r="F35">
+        <v>24997319.513584707</v>
+      </c>
+      <c r="G35">
+        <v>26730633.433588695</v>
+      </c>
+      <c r="H35">
+        <v>21656453.196148727</v>
+      </c>
+      <c r="I35">
+        <v>19348457.614922449</v>
+      </c>
+      <c r="J35">
+        <v>35338583.27356597</v>
+      </c>
+      <c r="K35">
+        <v>25977324.150000017</v>
+      </c>
+      <c r="L35">
+        <v>29840834.50000003</v>
+      </c>
+      <c r="M35">
+        <v>26637662.549999975</v>
+      </c>
+      <c r="N35">
+        <v>32966294.699999958</v>
+      </c>
+      <c r="O35">
+        <v>33215159.100000042</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>339205389.01648545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36">
+        <v>3.1032286715281634E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>3.2369570682917854E-2</v>
+      </c>
+      <c r="O37">
+        <v>4.8897043455813621E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>2.6610164129374855E-4</v>
+      </c>
+      <c r="E38">
+        <v>4.5670974332299046E-2</v>
+      </c>
+      <c r="N38">
+        <v>1.8582031155532582E-2</v>
+      </c>
+      <c r="O38">
+        <v>4.9328484210381471E-3</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" ref="P37:P39" si="1">P22/P54</f>
+        <v>6.7249680500241918E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>2.3521123757821645E-3</v>
+      </c>
+      <c r="E39">
+        <v>6.3298642022378851E-2</v>
+      </c>
+      <c r="N39">
+        <v>2.0781621192563965E-2</v>
+      </c>
+      <c r="O39">
+        <v>6.8637152427482315E-3</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2135282325329701E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>8.4277945395247484E-3</v>
+      </c>
+      <c r="E40">
+        <v>7.520668748256959E-2</v>
+      </c>
+      <c r="N40">
+        <v>2.5609136064254624E-2</v>
+      </c>
+      <c r="O40">
+        <v>1.1506179667891114E-2</v>
+      </c>
+      <c r="P40" s="2">
+        <f>P24/P56</f>
+        <v>2.0189195985738949E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>1.828825887190362E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.10177230869548082</v>
+      </c>
+      <c r="F41">
+        <v>0.13354544727839043</v>
+      </c>
+      <c r="N41">
+        <v>1.6924122907491231E-2</v>
+      </c>
+      <c r="O41">
+        <v>2.7531258852088805E-2</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" ref="P41:P51" si="2">P25/P57</f>
+        <v>3.0225344984532974E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>2.3938171371651273E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.13549164306369746</v>
+      </c>
+      <c r="F42">
+        <v>7.8780529003496094E-2</v>
+      </c>
+      <c r="N42">
+        <v>1.5727978701172211E-2</v>
+      </c>
+      <c r="O42">
+        <v>5.0050219083188234E-2</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1190041436737899E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>2.91531632805461E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.21965693935428243</v>
+      </c>
+      <c r="F43">
+        <v>8.312278989814699E-2</v>
+      </c>
+      <c r="L43">
+        <v>0.14611533673994195</v>
+      </c>
+      <c r="N43">
+        <v>1.3643002742981421E-2</v>
+      </c>
+      <c r="O43">
+        <v>6.505668776761088E-2</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9657204709540904E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>3.6878994872798596E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.23809667889885644</v>
+      </c>
+      <c r="F44">
+        <v>9.120347231919787E-2</v>
+      </c>
+      <c r="L44">
+        <v>0.13471365070547076</v>
+      </c>
+      <c r="N44">
+        <v>1.4775666703300668E-2</v>
+      </c>
+      <c r="O44">
+        <v>8.9316838423755582E-2</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="2"/>
+        <v>7.78881510025934E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>4.7115282414766681E-2</v>
+      </c>
+      <c r="E45">
+        <v>0.23585958447599276</v>
+      </c>
+      <c r="F45">
+        <v>7.805829867404579E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.17717133711923994</v>
+      </c>
+      <c r="L45">
+        <v>0.12737138504374929</v>
+      </c>
+      <c r="N45">
+        <v>2.2254168558554735E-2</v>
+      </c>
+      <c r="O45">
+        <v>0.1168385923015848</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="2"/>
+        <v>9.1664012214111953E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>4.5905656383240609E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.15609689916092745</v>
+      </c>
+      <c r="F46">
+        <v>5.6758923066956679E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.27351551051311684</v>
+      </c>
+      <c r="I46">
+        <v>0.17702911964143578</v>
+      </c>
+      <c r="L46">
+        <v>0.14292971875918492</v>
+      </c>
+      <c r="M46">
+        <v>0.31697131359852954</v>
+      </c>
+      <c r="N46">
+        <v>4.195223977943692E-2</v>
+      </c>
+      <c r="O46">
+        <v>0.11209632104448225</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10130769495152424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>7.3038839467518712E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.11842107933090971</v>
+      </c>
+      <c r="F47">
+        <v>0.11388999741041232</v>
+      </c>
+      <c r="G47">
+        <v>0.1548242236584102</v>
+      </c>
+      <c r="I47">
+        <v>0.21163465858300509</v>
+      </c>
+      <c r="L47">
+        <v>0.13990057843076953</v>
+      </c>
+      <c r="M47">
+        <v>0.28186450624019516</v>
+      </c>
+      <c r="N47">
+        <v>5.5458236226652448E-2</v>
+      </c>
+      <c r="O47">
+        <v>0.12725811356739242</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1138480826464168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>0.20671178244814861</v>
+      </c>
+      <c r="E48">
+        <v>4.7372383921146698E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.20834438245052223</v>
+      </c>
+      <c r="G48">
+        <v>0.11134293003068869</v>
+      </c>
+      <c r="I48">
+        <v>0.56243243300051049</v>
+      </c>
+      <c r="L48">
+        <v>0.17647415092016153</v>
+      </c>
+      <c r="M48">
+        <v>0.24978453370236303</v>
+      </c>
+      <c r="N48">
+        <v>6.4401920495011283E-2</v>
+      </c>
+      <c r="O48">
+        <v>0.13830860718591359</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13761116636475293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>0.25861846607975303</v>
+      </c>
+      <c r="E49">
+        <v>6.1624228796599533E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.20483208933660452</v>
+      </c>
+      <c r="G49">
+        <v>0.18360546714779707</v>
+      </c>
+      <c r="H49">
+        <v>0.26115399196762323</v>
+      </c>
+      <c r="L49">
+        <v>0.28604055249953569</v>
+      </c>
+      <c r="M49">
+        <v>0.12068138626379134</v>
+      </c>
+      <c r="N49">
+        <v>0.15683772596580736</v>
+      </c>
+      <c r="O49">
+        <v>0.23076355902406487</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18415718029765601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>0.38778083381682127</v>
+      </c>
+      <c r="E50">
+        <v>9.6504794380769074E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.41044458916904336</v>
+      </c>
+      <c r="G50">
+        <v>0.13681835257674616</v>
+      </c>
+      <c r="H50">
+        <v>0.31556028578217965</v>
+      </c>
+      <c r="K50">
+        <v>0.50589286335294237</v>
+      </c>
+      <c r="L50">
+        <v>0.32406481904578571</v>
+      </c>
+      <c r="M50">
+        <v>0.10061178768731982</v>
+      </c>
+      <c r="N50">
+        <v>0.19781820345979331</v>
+      </c>
+      <c r="O50">
+        <v>0.26423276891800213</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23221183110503862</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>0.61282148976087958</v>
+      </c>
+      <c r="E51">
+        <v>0.20034073802001509</v>
+      </c>
+      <c r="F51">
+        <v>0.644471425502392</v>
+      </c>
+      <c r="G51">
+        <v>0.39452525298004998</v>
+      </c>
+      <c r="H51">
+        <v>0.46344334120263569</v>
+      </c>
+      <c r="I51">
+        <v>0.59145932125059042</v>
+      </c>
+      <c r="J51">
+        <v>0.48106942499527156</v>
+      </c>
+      <c r="K51">
+        <v>0.2568620318320185</v>
+      </c>
+      <c r="L51">
+        <v>0.44750029661999119</v>
+      </c>
+      <c r="M51">
+        <v>0.24782274752378852</v>
+      </c>
+      <c r="N51">
+        <v>0.35055172092572673</v>
+      </c>
+      <c r="O51">
+        <v>0.43662652716379935</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="2"/>
+        <v>0.39360220423834302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <f>D22/D38</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:O54" si="3">E22/E38</f>
+        <v>11342018.222945087</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="3"/>
+        <v>15255865.214800905</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P54">
+        <f>SUM(D54:O54)</f>
+        <v>177959732.53955567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:M55" si="4">D23/D39</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>15894876.091470402</v>
+      </c>
+      <c r="N55">
+        <f t="shared" ref="N55:O55" si="5">N23/N39</f>
+        <v>37513644.561319515</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="5"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P55">
+        <f t="shared" ref="P55:P67" si="6">SUM(D55:O55)</f>
+        <v>204770369.75459963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:M56" si="7">D24/D40</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="7"/>
+        <v>22272264.423111428</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56:O56" si="8">N24/N40</f>
+        <v>59167386.994523533</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="8"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="6"/>
+        <v>232801500.51944464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:M57" si="9">D25/D41</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="9"/>
+        <v>20871202.402663592</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="9"/>
+        <v>6897459.1518536676</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ref="N57:O57" si="10">N25/N41</f>
+        <v>82867096.693036854</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="10"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="6"/>
+        <v>261997607.3493638</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:M58" si="11">D26/D42</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="11"/>
+        <v>21657387.147903726</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="11"/>
+        <v>25991385.476086173</v>
+      </c>
+      <c r="N58">
+        <f t="shared" ref="N58:O58" si="12">N26/N42</f>
+        <v>94041172.05000028</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="12"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="6"/>
+        <v>293051793.77579987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:M59" si="13">D27/D43</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="13"/>
+        <v>21043621.292608988</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="13"/>
+        <v>37354804.340995222</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="13"/>
+        <v>22780850.825399995</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59:O59" si="14">N27/N43</f>
+        <v>94041172.050000295</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="14"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="6"/>
+        <v>326582297.61081421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:M60" si="15">D28/D44</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="15"/>
+        <v>31065924.973988436</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="15"/>
+        <v>38787320.157908112</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="15"/>
+        <v>46807113.277498551</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ref="N60:O60" si="16">N28/N44</f>
+        <v>94041172.050000295</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="16"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="6"/>
+        <v>362063379.56120509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:M61" si="17">D29/D45</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="17"/>
+        <v>34019706.182421848</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="17"/>
+        <v>38787320.157908112</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="17"/>
+        <v>14609972.94906429</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="17"/>
+        <v>65513951.289751492</v>
+      </c>
+      <c r="N61">
+        <f t="shared" ref="N61:O61" si="18">N29/N45</f>
+        <v>94041172.050000295</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="18"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="6"/>
+        <v>398333971.73095572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:M62" si="19">D30/D46</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="19"/>
+        <v>49985052.961096019</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="19"/>
+        <v>38787320.157908112</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="19"/>
+        <v>12878422.422817333</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="19"/>
+        <v>16511122.191109121</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="19"/>
+        <v>66683384.850000016</v>
+      </c>
+      <c r="N62">
+        <f t="shared" ref="N62:O62" si="20">N30/N46</f>
+        <v>94041172.050000295</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="20"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="6"/>
+        <v>430248323.73474056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:O63" si="21">D31/D47</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="21"/>
+        <v>66746065.505173817</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="21"/>
+        <v>38787320.157908112</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="21"/>
+        <v>24692107.179350153</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="21"/>
+        <v>16942830.374201633</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="21"/>
+        <v>66683384.850000009</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="21"/>
+        <v>16847982.671674125</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="21"/>
+        <v>94041172.050000295</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="21"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="6"/>
+        <v>476102711.89011782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64:O64" si="22">D32/D48</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="22"/>
+        <v>81648786.594223887</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="22"/>
+        <v>38787320.157908112</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="22"/>
+        <v>46980716.931819417</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="22"/>
+        <v>702291.97307339008</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="22"/>
+        <v>66683384.850000016</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="22"/>
+        <v>40986921.94847548</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="22"/>
+        <v>94041172.050000295</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="22"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="6"/>
+        <v>521192443.6073103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:O65" si="23">D33/D49</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="23"/>
+        <v>81648786.594223887</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="23"/>
+        <v>38787320.157908112</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="23"/>
+        <v>33925943.025333412</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="23"/>
+        <v>22875683.601454753</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="23"/>
+        <v>66683384.850000009</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="23"/>
+        <v>93205326.220153749</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="23"/>
+        <v>94041172.050000295</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="23"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="6"/>
+        <v>582529465.60088396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:O66" si="24">D34/D50</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="24"/>
+        <v>81648786.594223887</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="24"/>
+        <v>38787320.157908112</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="24"/>
+        <v>67753922.547868907</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="24"/>
+        <v>28793787.379758116</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="24"/>
+        <v>19498922.660763454</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="24"/>
+        <v>66683384.850000016</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="24"/>
+        <v>107486753.40000023</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="24"/>
+        <v>94041172.050000295</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="24"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="6"/>
+        <v>656055898.7423327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:O67" si="25">D35/D51</f>
+        <v>75289606.501809672</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="25"/>
+        <v>81648786.594223887</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="25"/>
+        <v>38787320.157908112</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="25"/>
+        <v>67753922.547868907</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="25"/>
+        <v>46729451.630376697</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="25"/>
+        <v>32713082.573475689</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="25"/>
+        <v>73458385.499999955</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="25"/>
+        <v>101133374.84999944</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="25"/>
+        <v>66683384.850000009</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="25"/>
+        <v>107486753.40000023</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="25"/>
+        <v>94041172.050000295</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="25"/>
+        <v>76072242.600000024</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="6"/>
+        <v>861797483.25566292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/analysis/Results_model/DOLORES_max_cap_6regions/Figure11_compare.xlsx
+++ b/analysis/Results_model/DOLORES_max_cap_6regions/Figure11_compare.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE-2\dolores\analysis\Results_model\DOLORES_max_cap_6regions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B061BD1D-CC41-40AC-BD38-129601043D1C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report_tech" sheetId="4" r:id="rId1"/>
     <sheet name="report_tech_old" sheetId="7" r:id="rId2"/>
     <sheet name="figure" sheetId="9" r:id="rId3"/>
-    <sheet name="report_tech_M" sheetId="10" r:id="rId4"/>
-    <sheet name="report_tech_D" sheetId="11" r:id="rId5"/>
-    <sheet name="Tabelle2" sheetId="12" r:id="rId6"/>
+    <sheet name="figure Jonathan" sheetId="13" r:id="rId4"/>
+    <sheet name="report_tech_M" sheetId="10" r:id="rId5"/>
+    <sheet name="report_tech_D" sheetId="11" r:id="rId6"/>
+    <sheet name="Tabelle2" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">report_tech_M!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">report_tech_M!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -166,8 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,11 +209,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -225,8 +234,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -244,12 +263,15 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -264,6 +286,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -292,10 +315,15 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -402,6 +430,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D256-4830-893E-2D1537F214A4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -414,6 +447,7 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -423,10 +457,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -533,12 +572,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D256-4830-893E-2D1537F214A4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="114383872"/>
         <c:axId val="114402432"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -616,7 +670,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D256-4830-893E-2D1537F214A4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="114422144"/>
         <c:axId val="114403968"/>
       </c:scatterChart>
@@ -625,23 +693,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="114402432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="114402432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="114383872"/>
         <c:crosses val="autoZero"/>
@@ -654,8 +729,11 @@
           <c:max val="0.34"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="114422144"/>
         <c:crosses val="max"/>
@@ -668,6 +746,8 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="114403968"/>
         <c:crosses val="autoZero"/>
@@ -676,9 +756,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -689,8 +771,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -708,18 +800,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>storage_E</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -729,10 +825,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -839,6 +940,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40FD-4CCB-B53C-4B69FE4C1DED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -846,6 +952,7 @@
           <c:tx>
             <c:v>storage_P</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -855,10 +962,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -965,12 +1077,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40FD-4CCB-B53C-4B69FE4C1DED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="116341376"/>
         <c:axId val="116355840"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -997,40 +1124,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>2.412777742385401E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>3.6911973078595645E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>5.5317787957186657E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>7.8215148988548533E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>9.3484773441398716E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>0.11099998851667732</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>0.12543992127716888</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>0.14632963513611816</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>0.17568778154431289</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>0.21790699135613234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-40FD-4CCB-B53C-4B69FE4C1DED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="116359168"/>
         <c:axId val="116357376"/>
       </c:scatterChart>
@@ -1039,23 +1180,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116355840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="116355840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116341376"/>
         <c:crosses val="autoZero"/>
@@ -1068,8 +1216,11 @@
           <c:max val="0.34"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116359168"/>
         <c:crosses val="max"/>
@@ -1082,6 +1233,8 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="116357376"/>
         <c:crosses val="autoZero"/>
@@ -1090,9 +1243,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1103,8 +1258,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1122,6 +1287,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -1138,6 +1304,7 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="8"/>
@@ -1147,7 +1314,18 @@
                   <c:y val="8.6021476243678483E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -1157,13 +1335,34 @@
                   <c:y val="8.6022221463766292E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -1183,10 +1382,15 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1275,6 +1479,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1289,6 +1498,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -1308,10 +1518,15 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1400,6 +1615,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1414,8 +1634,11 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg2">
@@ -1430,6 +1653,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1440,7 +1668,18 @@
                   <c:y val="8.6021476243679281E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -1450,7 +1689,18 @@
                   <c:y val="8.6021476243679281E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -1460,7 +1710,18 @@
                   <c:y val="-2.5149710209072008E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -1480,10 +1741,15 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1572,6 +1838,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1586,6 +1857,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
@@ -1605,10 +1877,15 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1697,12 +1974,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="116413568"/>
         <c:axId val="116415872"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="2"/>
@@ -1730,7 +2022,7 @@
             <c:numRef>
               <c:f>report_tech_D!$P$39:$P$49</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.2135282325329701E-2</c:v>
@@ -1768,6 +2060,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1798,7 +2096,7 @@
             <c:numRef>
               <c:f>report_tech_M!$E$39:$E$49</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="1">
                   <c:v>2.412777742385401E-2</c:v>
@@ -1833,7 +2131,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E72B-44E8-B1F2-BA6DC5338FB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="116436352"/>
         <c:axId val="116434432"/>
       </c:scatterChart>
@@ -1842,6 +2154,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1888,9 +2201,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1913,6 +2228,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="116415872"/>
@@ -1921,6 +2237,7 @@
           <c:max val="1400"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1990,8 +2307,11 @@
               <c:y val="8.0685850682521695E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2031,6 +2351,7 @@
           <c:max val="0.30000000000000021"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2100,8 +2421,11 @@
               <c:y val="6.8526403473774672E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -2141,6 +2465,8 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="116434432"/>
         <c:crosses val="autoZero"/>
@@ -2184,9 +2510,11 @@
           <c:h val="0.10505058882488118"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2199,6 +2527,2479 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1300">
+          <a:latin typeface="Caladea" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DOLORES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>storage_E</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>report_tech!$G$4:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>report_tech!$F$4:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6038915921655894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4047814871401645</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.963370777682265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.86268009300548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.738819692480419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.096602127245049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117.7602182370584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>167.31567331023328</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>241.40839945696644</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>337.05073901179833</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>453.48878154759933</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>573.29806541502944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4814-4108-86E1-F2E180631EC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>storage_P</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>report_tech!$G$4:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>report_tech!$F$21:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6832971899189142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1810745153350242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4338196080728887</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7491884201820724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.011737909476146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.540935289861869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.45427819671114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.149330680733641</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.112445297648719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.147321503628397</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.619361368716682</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.49929704566923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4814-4108-86E1-F2E180631EC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="114383872"/>
+        <c:axId val="114402432"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>curtailment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>report_tech_old!$R$36:$R$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.1032286715004363E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0037774299093798E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5864344748973007E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7637964294485876E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5983061631926867E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5243262557421835E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1771007630496584E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5924938580151747E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5120370202561043E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10041084579686019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12642135097419463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1541441874401431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18197433846204655</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2283429062128168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26642038552721392</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30804970108895319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4814-4108-86E1-F2E180631EC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="114422144"/>
+        <c:axId val="114403968"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="114383872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114402432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114402432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114383872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="114403968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.34"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114422144"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="114422144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="114403968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MORITS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>storage_E</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>report_tech!$G$4:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>report_tech_M!$C$3:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.187103927446099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.412656719508298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.396607444319798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.551849847157101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138.91811804019099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196.12586450557299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270.83564214092598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>352.83913678925398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>461.07218936113998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>687.35800435822296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-181E-4902-992A-A4A0AAD668AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>storage_P</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>report_tech!$G$4:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>report_tech_M!$C$20:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1236850593377996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2065378444029893</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.2142698009644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.216238131962299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.992394794164699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.375416369456101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.421343523685898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.763685638172497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.542907442285802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.610731907019499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-181E-4902-992A-A4A0AAD668AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="116341376"/>
+        <c:axId val="116355840"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>curtailment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>report_tech_M!$E$36:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>2.412777742385401E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>3.6911973078595645E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>5.5317787957186657E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>7.8215148988548533E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>9.3484773441398716E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>0.11099998851667732</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>0.12543992127716888</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>0.14632963513611816</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>0.17568778154431289</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>0.21790699135613234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-181E-4902-992A-A4A0AAD668AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116359168"/>
+        <c:axId val="116357376"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="116341376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116355840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116355840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116341376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116357376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.34"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116359168"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116359168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="116357376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12751704545454542"/>
+          <c:y val="6.0963611111111114E-2"/>
+          <c:w val="0.77294665404040408"/>
+          <c:h val="0.69736616161616161"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Storage energy capacity 6 regions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3904077058212607E-3"/>
+                  <c:y val="8.6021476243678483E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2532362161705216E-3"/>
+                  <c:y val="8.6022221463766292E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>report_tech!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>report_tech!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.4047814871401645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.963370777682265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.86268009300548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.738819692480419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.096602127245049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117.7602182370584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167.31567331023328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.40839945696644</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337.05073901179833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>453.48878154759933</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>573.29806541502944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A15F-43E3-9408-FB367D372F43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Storage Power capacity 6 regions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>report_tech!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>report_tech!$F$24:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.1810745153350242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4338196080728887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7491884201820724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.011737909476146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.540935289861869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.45427819671114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.149330680733641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.112445297648719</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.147321503628397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.619361368716682</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.49929704566923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A15F-43E3-9408-FB367D372F43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Storage Energy capacity 1 region</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A15F-43E3-9408-FB367D372F43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.6021476243679281E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.6021476243679281E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0928099319633526E-3"/>
+                  <c:y val="-2.5149710209072008E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>report_tech!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>report_tech_M!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.187103927446099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.412656719508298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.396607444319798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.551849847157101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138.91811804019099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196.12586450557299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270.83564214092598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>352.83913678925398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>461.07218936113998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>687.35800435822296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A15F-43E3-9408-FB367D372F43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Storage Power capacity 1 region</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>report_tech!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>report_tech_M!$C$23:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1236850593377996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2065378444029893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.2142698009644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.216238131962299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.992394794164699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.375416369456101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.421343523685898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.763685638172497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.542907442285802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.610731907019499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-A15F-43E3-9408-FB367D372F43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="116413568"/>
+        <c:axId val="116415872"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Curtailment 6 regions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666699E-2"/>
+                  <c:y val="-0.15472833333333333"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666699E-2"/>
+                  <c:y val="-8.7700555555555559E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666664E-2"/>
+                  <c:y val="-0.10533944444444432"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666734E-2"/>
+                  <c:y val="-0.10886722222222223"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666664E-2"/>
+                  <c:y val="-0.11239499999999999"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666734E-2"/>
+                  <c:y val="-0.13003388888888889"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>report_tech_D!$P$39:$P$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2135282325329701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0189195985738949E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0225344984532974E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1190041436737899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9657204709540904E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.78881510025934E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1664012214111953E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10130769495152424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1138480826464168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13761116636475293</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18415718029765601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-A15F-43E3-9408-FB367D372F43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Curtailment 1 region</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666699E-2"/>
+                  <c:y val="-8.7700555555555559E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.498680555555559E-2"/>
+                  <c:y val="-0.11592277777777778"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666664E-2"/>
+                  <c:y val="-0.12297833333333333"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666734E-2"/>
+                  <c:y val="-0.11239499999999999"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666664E-2"/>
+                  <c:y val="-0.12650611111111112"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3222916666666734E-2"/>
+                  <c:y val="-0.13356166666666675"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-A15F-43E3-9408-FB367D372F43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>report_tech_M!$E$39:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>2.412777742385401E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6911973078595645E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5317787957186657E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8215148988548533E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3484773441398716E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11099998851667732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12543992127716888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14632963513611816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17568778154431289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21790699135613234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A15F-43E3-9408-FB367D372F43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116436352"/>
+        <c:axId val="116434432"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="116413568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Share of variable renewables in final consumer demand in percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116415872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116415872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Storage Energy capacity in GWh</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Storage Power capacity in GW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4283950617283948E-3"/>
+              <c:y val="8.0685833333333332E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="116413568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116434432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.24000000000000002"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:schemeClr val="bg1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Renewable curtailment in percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.9642162247474747"/>
+              <c:y val="6.1470959595959607E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="116436352"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000011E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116436352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="116434432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7009154040404071E-3"/>
+          <c:y val="0.88355757575757565"/>
+          <c:w val="0.98460258838383818"/>
+          <c:h val="9.7199999999999995E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
           <a:latin typeface="Caladea" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -2230,7 +5031,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2260,7 +5067,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2292,9 +5105,15 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2314,22 +5133,147 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33231F7D-B214-4EB9-88D1-EAAD40239C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E551FC1-FC5F-4C62-A618-835CDE55665E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78438</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>318438</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>60351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB75D72C-489D-4B3B-A9A6-93EAEBD11AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>68800</xdr:colOff>
+      <xdr:colOff>97375</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>53890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2342,7 +5286,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="0"/>
+          <a:off x="200025" y="0"/>
           <a:ext cx="11327350" cy="6340390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2398,7 +5342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2450,7 +5394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2644,26 +5588,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2675,7 +5619,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20</v>
       </c>
@@ -2693,7 +5637,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -2714,7 +5658,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -2735,7 +5679,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -2756,7 +5700,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2777,7 +5721,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2798,7 +5742,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2816,7 +5760,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,7 +5778,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -2852,7 +5796,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2870,7 +5814,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -2888,7 +5832,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2906,7 +5850,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2924,7 +5868,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2942,7 +5886,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,7 +5904,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,7 +5922,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -2996,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>20</v>
       </c>
@@ -3010,7 +5954,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -3027,7 +5971,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3044,7 +5988,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,7 +6005,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -3078,7 +6022,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -3095,7 +6039,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -3109,7 +6053,7 @@
         <v>7.7491884201820724</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -3123,7 +6067,7 @@
         <v>12.011737909476146</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -3137,7 +6081,7 @@
         <v>12.540935289861869</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -3151,7 +6095,7 @@
         <v>15.45427819671114</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -3165,7 +6109,7 @@
         <v>22.149330680733641</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,7 +6123,7 @@
         <v>34.112445297648719</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -3193,7 +6137,7 @@
         <v>45.147321503628397</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3207,7 +6151,7 @@
         <v>52.619361368716682</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3221,7 +6165,7 @@
         <v>56.49929704566923</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -3235,7 +6179,7 @@
         <v>63.918378600121969</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -3249,92 +6193,92 @@
         <v>100.28890279047621</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3345,14 +6289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="5" max="10" width="0" hidden="1" customWidth="1"/>
@@ -3360,7 +6304,7 @@
     <col min="19" max="19" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3407,7 +6351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
@@ -3451,7 +6395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3476,7 +6420,7 @@
         <v>32.513787200312422</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3501,7 +6445,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -3529,7 +6473,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3560,7 +6504,7 @@
         <v>44.549559858877991</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3591,7 +6535,7 @@
         <v>57.384551596145343</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -3622,7 +6566,7 @@
         <v>71.087680394227391</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3656,7 +6600,7 @@
         <v>84.440068627642205</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3693,7 +6637,7 @@
         <v>92.340935199839208</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -3733,7 +6677,7 @@
         <v>107.38284701542166</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3773,7 +6717,7 @@
         <v>125.75565534770421</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3816,7 +6760,7 @@
         <v>145.22195336958976</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -3862,7 +6806,7 @@
         <v>171.27394802482468</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -3908,7 +6852,7 @@
         <v>198.90000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3957,7 +6901,7 @@
         <v>221.42163998589109</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -4006,7 +6950,7 @@
         <v>269.20586285515861</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -4058,7 +7002,7 @@
         <v>318.88561507046091</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4113,7 +7057,7 @@
         <v>357.00000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -4139,7 +7083,7 @@
         <v>2360.6956434165695</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -4165,7 +7109,7 @@
         <v>380648.57056447095</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -4194,7 +7138,7 @@
         <v>1299658.5993119818</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -4226,7 +7170,7 @@
         <v>2902918.2764097955</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -4261,7 +7205,7 @@
         <v>6054378.2890977217</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -4299,7 +7243,7 @@
         <v>9257124.8436458111</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -4340,7 +7284,7 @@
         <v>12318811.000034433</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -4384,7 +7328,7 @@
         <v>18446852.04702647</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4428,7 +7372,7 @@
         <v>27644169.716563694</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -4475,7 +7419,7 @@
         <v>41416899.680438504</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -4531,7 +7475,7 @@
         <v>58147688.325286664</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -4587,7 +7531,7 @@
         <v>79179270.510886341</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -4640,7 +7584,7 @@
         <v>105774781.12147437</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -4696,7 +7640,7 @@
         <v>150913493.63973701</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -4752,7 +7696,7 @@
         <v>199377120.94245195</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -4811,7 +7755,7 @@
         <v>265476457.11611915</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -4836,7 +7780,7 @@
         <v>3.1032286715004363E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -4861,7 +7805,7 @@
         <v>5.0037774299093798E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -4890,7 +7834,7 @@
         <v>8.5864344748973007E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -4922,7 +7866,7 @@
         <v>1.7637964294485876E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -4957,7 +7901,7 @@
         <v>2.5983061631926867E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -4995,7 +7939,7 @@
         <v>3.5243262557421835E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -5036,7 +7980,7 @@
         <v>4.1771007630496584E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -5080,7 +8024,7 @@
         <v>5.5924938580151747E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -5124,7 +8068,7 @@
         <v>7.5120370202561043E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -5171,7 +8115,7 @@
         <v>0.10041084579686019</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
@@ -5221,7 +8165,7 @@
         <v>0.12642135097419463</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
@@ -5271,7 +8215,7 @@
         <v>0.1541441874401431</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
@@ -5324,7 +8268,7 @@
         <v>0.18197433846204655</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
@@ -5377,7 +8321,7 @@
         <v>0.2283429062128168</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
@@ -5433,7 +8377,7 @@
         <v>0.26642038552721392</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
@@ -5492,7 +8436,7 @@
         <v>0.30804970108895319</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -5519,7 +8463,7 @@
         <v>76072242.600000024</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -5546,7 +8490,7 @@
         <v>76072242.600000024</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>35</v>
       </c>
@@ -5577,7 +8521,7 @@
         <v>151361849.10180971</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
@@ -5612,7 +8556,7 @@
         <v>164583521.54150406</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -5651,7 +8595,7 @@
         <v>233012505.4107697</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
@@ -5694,7 +8638,7 @@
         <v>262663674.47006875</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -5741,7 +8685,7 @@
         <v>294912947.97113287</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
@@ -5792,7 +8736,7 @@
         <v>329850197.70005471</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>35</v>
       </c>
@@ -5843,7 +8787,7 @@
         <v>367998315.79665506</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>35</v>
       </c>
@@ -5898,7 +8842,7 @@
         <v>412474363.21996999</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
@@ -5957,7 +8901,7 @@
         <v>459951486.65319902</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>35</v>
       </c>
@@ -6016,7 +8960,7 @@
         <v>513670167.04170597</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>35</v>
       </c>
@@ -6079,7 +9023,7 @@
         <v>581262072.52862346</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>35</v>
       </c>
@@ -6142,7 +9086,7 @@
         <v>660907300.08965039</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
@@ -6209,7 +9153,7 @@
         <v>748355350.31566215</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>35</v>
       </c>
@@ -6280,7 +9224,7 @@
         <v>861797483.25566304</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -6291,34 +9235,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6C9D51-A88D-4607-95AF-7DA7468F2788}">
+  <dimension ref="S48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="48" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S48" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -6335,7 +9300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -6353,7 +9318,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6371,7 +9336,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -6389,7 +9354,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -6407,7 +9372,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -6425,7 +9390,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -6443,7 +9408,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6461,7 +9426,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -6479,7 +9444,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -6497,7 +9462,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -6515,7 +9480,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -6533,7 +9498,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -6551,7 +9516,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -6569,7 +9534,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -6587,7 +9552,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -6605,7 +9570,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -6623,7 +9588,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -6641,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -6655,7 +9620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -6669,7 +9634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -6683,7 +9648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -6697,7 +9662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6711,7 +9676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6725,7 +9690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6739,7 +9704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -6753,7 +9718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -6767,7 +9732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -6781,7 +9746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -6795,7 +9760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -6809,7 +9774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -6823,7 +9788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6837,7 +9802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -6851,7 +9816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -6865,7 +9830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6879,7 +9844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -6887,7 +9852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -6895,7 +9860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -6903,7 +9868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -6911,125 +9876,126 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40">
         <v>45</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>2.412777742385401E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
       <c r="B41">
         <v>50</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>3.6911973078595645E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
       <c r="B42">
         <v>55</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>5.5317787957186657E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
       <c r="B43">
         <v>60</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>7.8215148988548533E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
       <c r="B44">
         <v>65</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>9.3484773441398716E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
       <c r="B45">
         <v>70</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>0.11099998851667732</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
       <c r="B46">
         <v>75</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>0.12543992127716888</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47">
         <v>80</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>0.14632963513611816</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
       <c r="B48">
         <v>85</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>0.17568778154431289</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
       <c r="B49">
         <v>90</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>0.21790699135613234</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
       <c r="B50">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -7038,25 +10004,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38:P52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
@@ -7094,7 +10060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
@@ -7132,7 +10098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -7149,7 +10115,7 @@
         <v>32.513787200312414</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -7166,7 +10132,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -7186,7 +10152,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -7209,7 +10175,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -7232,7 +10198,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -7255,7 +10221,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -7281,7 +10247,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -7307,7 +10273,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -7336,7 +10302,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -7365,7 +10331,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -7397,7 +10363,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -7435,7 +10401,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -7473,7 +10439,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -7511,7 +10477,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -7549,7 +10515,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -7590,7 +10556,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -7637,7 +10603,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -7655,7 +10621,7 @@
         <v>2360.6956434376625</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -7676,7 +10642,7 @@
         <v>380648.57056447625</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -7703,7 +10669,7 @@
         <v>1196773.5155193624</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -7730,7 +10696,7 @@
         <v>2484946.2488342207</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -7757,7 +10723,7 @@
         <v>4700075.1197611755</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -7787,7 +10753,7 @@
         <v>7918968.0672567328</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -7817,7 +10783,7 @@
         <v>12070815.528735567</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -7850,7 +10816,7 @@
         <v>19482986.983080555</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -7883,7 +10849,7 @@
         <v>28200447.179772429</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -7919,7 +10885,7 @@
         <v>36512890.050042048</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -7961,7 +10927,7 @@
         <v>43587465.934323743</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -8003,7 +10969,7 @@
         <v>54203380.891449302</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -8045,7 +11011,7 @@
         <v>71721900.065297693</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -8087,7 +11053,7 @@
         <v>107276983.8253592</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -8132,7 +11098,7 @@
         <v>152343941.55421889</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -8183,7 +11149,7 @@
         <v>339205389.01648545</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -8197,7 +11163,7 @@
         <v>3.1032286715281634E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -8214,7 +11180,7 @@
         <v>4.8897043455813621E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -8236,12 +11202,12 @@
       <c r="O38">
         <v>4.9328484210381471E-3</v>
       </c>
-      <c r="P38" s="2">
-        <f t="shared" ref="P37:P39" si="1">P22/P54</f>
+      <c r="P38" s="4">
+        <f t="shared" ref="P38:P39" si="1">P22/P54</f>
         <v>6.7249680500241918E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -8263,12 +11229,12 @@
       <c r="O39">
         <v>6.8637152427482315E-3</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="4">
         <f t="shared" si="1"/>
         <v>1.2135282325329701E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -8290,12 +11256,12 @@
       <c r="O40">
         <v>1.1506179667891114E-2</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="4">
         <f>P24/P56</f>
         <v>2.0189195985738949E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -8320,12 +11286,12 @@
       <c r="O41">
         <v>2.7531258852088805E-2</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="4">
         <f t="shared" ref="P41:P51" si="2">P25/P57</f>
         <v>3.0225344984532974E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -8350,12 +11316,12 @@
       <c r="O42">
         <v>5.0050219083188234E-2</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="4">
         <f t="shared" si="2"/>
         <v>4.1190041436737899E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -8383,12 +11349,12 @@
       <c r="O43">
         <v>6.505668776761088E-2</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="4">
         <f t="shared" si="2"/>
         <v>5.9657204709540904E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -8416,12 +11382,12 @@
       <c r="O44">
         <v>8.9316838423755582E-2</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="4">
         <f t="shared" si="2"/>
         <v>7.78881510025934E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -8452,12 +11418,12 @@
       <c r="O45">
         <v>0.1168385923015848</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="4">
         <f t="shared" si="2"/>
         <v>9.1664012214111953E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
@@ -8494,12 +11460,12 @@
       <c r="O46">
         <v>0.11209632104448225</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="4">
         <f t="shared" si="2"/>
         <v>0.10130769495152424</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
@@ -8536,12 +11502,12 @@
       <c r="O47">
         <v>0.12725811356739242</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="4">
         <f t="shared" si="2"/>
         <v>0.1138480826464168</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
@@ -8578,12 +11544,12 @@
       <c r="O48">
         <v>0.13830860718591359</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="4">
         <f t="shared" si="2"/>
         <v>0.13761116636475293</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
@@ -8620,12 +11586,12 @@
       <c r="O49">
         <v>0.23076355902406487</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49" s="4">
         <f t="shared" si="2"/>
         <v>0.18415718029765601</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
@@ -8665,12 +11631,12 @@
       <c r="O50">
         <v>0.26423276891800213</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="5">
         <f t="shared" si="2"/>
         <v>0.23221183110503862</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
@@ -8716,20 +11682,21 @@
       <c r="O51">
         <v>0.43662652716379935</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="5">
         <f t="shared" si="2"/>
         <v>0.39360220423834302</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -8737,7 +11704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -8765,7 +11732,7 @@
         <v>177959732.53955567</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -8773,7 +11740,7 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55:M55" si="4">D23/D39</f>
+        <f t="shared" ref="D55:E55" si="4">D23/D39</f>
         <v>75289606.501809672</v>
       </c>
       <c r="E55">
@@ -8793,7 +11760,7 @@
         <v>204770369.75459963</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -8801,7 +11768,7 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:M56" si="7">D24/D40</f>
+        <f t="shared" ref="D56:E56" si="7">D24/D40</f>
         <v>75289606.501809672</v>
       </c>
       <c r="E56">
@@ -8821,7 +11788,7 @@
         <v>232801500.51944464</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -8829,7 +11796,7 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:M57" si="9">D25/D41</f>
+        <f t="shared" ref="D57:F57" si="9">D25/D41</f>
         <v>75289606.501809672</v>
       </c>
       <c r="E57">
@@ -8853,7 +11820,7 @@
         <v>261997607.3493638</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -8861,7 +11828,7 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:M58" si="11">D26/D42</f>
+        <f t="shared" ref="D58:F58" si="11">D26/D42</f>
         <v>75289606.501809672</v>
       </c>
       <c r="E58">
@@ -8885,7 +11852,7 @@
         <v>293051793.77579987</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -8893,7 +11860,7 @@
         <v>8</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:M59" si="13">D27/D43</f>
+        <f t="shared" ref="D59:L59" si="13">D27/D43</f>
         <v>75289606.501809672</v>
       </c>
       <c r="E59">
@@ -8921,7 +11888,7 @@
         <v>326582297.61081421</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -8929,7 +11896,7 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:M60" si="15">D28/D44</f>
+        <f t="shared" ref="D60:L60" si="15">D28/D44</f>
         <v>75289606.501809672</v>
       </c>
       <c r="E60">
@@ -8957,7 +11924,7 @@
         <v>362063379.56120509</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -8965,7 +11932,7 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:M61" si="17">D29/D45</f>
+        <f t="shared" ref="D61:L61" si="17">D29/D45</f>
         <v>75289606.501809672</v>
       </c>
       <c r="E61">
@@ -8997,7 +11964,7 @@
         <v>398333971.73095572</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -9005,7 +11972,7 @@
         <v>11</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:M62" si="19">D30/D46</f>
+        <f t="shared" ref="D62:L62" si="19">D30/D46</f>
         <v>75289606.501809672</v>
       </c>
       <c r="E62">
@@ -9041,7 +12008,7 @@
         <v>430248323.73474056</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -9089,7 +12056,7 @@
         <v>476102711.89011782</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -9137,7 +12104,7 @@
         <v>521192443.6073103</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -9185,7 +12152,7 @@
         <v>582529465.60088396</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -9237,7 +12204,7 @@
         <v>656055898.7423327</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -9302,15 +12269,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
